--- a/pizza_delivery_data_set.xlsx
+++ b/pizza_delivery_data_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OUSL\Level 06\EEX5362 Performance Modelling\MiniProject\Data_Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2C802F-13BA-4F8F-AFDB-3161A9BC75D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D2CF50-464E-4A1B-8FB9-9601C40CF8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CD4E57AB-491E-4249-9CEB-CFF614D4161E}"/>
   </bookViews>
@@ -134,198 +134,9 @@
     <t>WH_01_DRV05</t>
   </si>
   <si>
-    <t>D0034</t>
-  </si>
-  <si>
-    <t>D0035</t>
-  </si>
-  <si>
-    <t>D0036</t>
-  </si>
-  <si>
-    <t>D0037</t>
-  </si>
-  <si>
-    <t>D0038</t>
-  </si>
-  <si>
-    <t>D0039</t>
-  </si>
-  <si>
-    <t>D0040</t>
-  </si>
-  <si>
-    <t>D0041</t>
-  </si>
-  <si>
-    <t>D0042</t>
-  </si>
-  <si>
-    <t>D0043</t>
-  </si>
-  <si>
-    <t>D0044</t>
-  </si>
-  <si>
-    <t>D0045</t>
-  </si>
-  <si>
-    <t>D0046</t>
-  </si>
-  <si>
-    <t>D0047</t>
-  </si>
-  <si>
-    <t>D0048</t>
-  </si>
-  <si>
-    <t>D0049</t>
-  </si>
-  <si>
-    <t>D0050</t>
-  </si>
-  <si>
-    <t>D0051</t>
-  </si>
-  <si>
-    <t>D0052</t>
-  </si>
-  <si>
-    <t>D0053</t>
-  </si>
-  <si>
-    <t>D0054</t>
-  </si>
-  <si>
-    <t>D0055</t>
-  </si>
-  <si>
-    <t>D0056</t>
-  </si>
-  <si>
-    <t>D0057</t>
-  </si>
-  <si>
-    <t>D0058</t>
-  </si>
-  <si>
-    <t>D0059</t>
-  </si>
-  <si>
-    <t>D0060</t>
-  </si>
-  <si>
-    <t>D0061</t>
-  </si>
-  <si>
-    <t>D0062</t>
-  </si>
-  <si>
-    <t>D0063</t>
-  </si>
-  <si>
-    <t>D0064</t>
-  </si>
-  <si>
-    <t>D0065</t>
-  </si>
-  <si>
-    <t>D0066</t>
-  </si>
-  <si>
-    <t>D0067</t>
-  </si>
-  <si>
-    <t>D0068</t>
-  </si>
-  <si>
-    <t>D0069</t>
-  </si>
-  <si>
-    <t>D0070</t>
-  </si>
-  <si>
-    <t>D0071</t>
-  </si>
-  <si>
-    <t>D0072</t>
-  </si>
-  <si>
-    <t>D0073</t>
-  </si>
-  <si>
-    <t>D0074</t>
-  </si>
-  <si>
-    <t>D0075</t>
-  </si>
-  <si>
-    <t>D0076</t>
-  </si>
-  <si>
-    <t>D0077</t>
-  </si>
-  <si>
-    <t>D0078</t>
-  </si>
-  <si>
-    <t>D0079</t>
-  </si>
-  <si>
-    <t>D0080</t>
-  </si>
-  <si>
     <t>Cancelled</t>
   </si>
   <si>
-    <t>D0081</t>
-  </si>
-  <si>
-    <t>D0082</t>
-  </si>
-  <si>
-    <t>D0083</t>
-  </si>
-  <si>
-    <t>D0084</t>
-  </si>
-  <si>
-    <t>D0085</t>
-  </si>
-  <si>
-    <t>D0086</t>
-  </si>
-  <si>
-    <t>D0087</t>
-  </si>
-  <si>
-    <t>D0088</t>
-  </si>
-  <si>
-    <t>D0089</t>
-  </si>
-  <si>
-    <t>D0090</t>
-  </si>
-  <si>
-    <t>D0091</t>
-  </si>
-  <si>
-    <t>D0092</t>
-  </si>
-  <si>
-    <t>D0093</t>
-  </si>
-  <si>
-    <t>D0094</t>
-  </si>
-  <si>
-    <t>D0095</t>
-  </si>
-  <si>
-    <t>D0096</t>
-  </si>
-  <si>
     <t>D004113</t>
   </si>
   <si>
@@ -453,6 +264,195 @@
   </si>
   <si>
     <t>Branch 02</t>
+  </si>
+  <si>
+    <t>D007025</t>
+  </si>
+  <si>
+    <t>D007026</t>
+  </si>
+  <si>
+    <t>D007027</t>
+  </si>
+  <si>
+    <t>D007028</t>
+  </si>
+  <si>
+    <t>D007029</t>
+  </si>
+  <si>
+    <t>D007030</t>
+  </si>
+  <si>
+    <t>D007031</t>
+  </si>
+  <si>
+    <t>D007032</t>
+  </si>
+  <si>
+    <t>D007033</t>
+  </si>
+  <si>
+    <t>D007034</t>
+  </si>
+  <si>
+    <t>D007150</t>
+  </si>
+  <si>
+    <t>D007151</t>
+  </si>
+  <si>
+    <t>D007152</t>
+  </si>
+  <si>
+    <t>D007153</t>
+  </si>
+  <si>
+    <t>D007154</t>
+  </si>
+  <si>
+    <t>D007155</t>
+  </si>
+  <si>
+    <t>D007156</t>
+  </si>
+  <si>
+    <t>D007157</t>
+  </si>
+  <si>
+    <t>D007158</t>
+  </si>
+  <si>
+    <t>D007159</t>
+  </si>
+  <si>
+    <t>D007160</t>
+  </si>
+  <si>
+    <t>D007161</t>
+  </si>
+  <si>
+    <t>D007162</t>
+  </si>
+  <si>
+    <t>D007163</t>
+  </si>
+  <si>
+    <t>D007164</t>
+  </si>
+  <si>
+    <t>D007165</t>
+  </si>
+  <si>
+    <t>D007200</t>
+  </si>
+  <si>
+    <t>D007201</t>
+  </si>
+  <si>
+    <t>D007202</t>
+  </si>
+  <si>
+    <t>D007203</t>
+  </si>
+  <si>
+    <t>D007204</t>
+  </si>
+  <si>
+    <t>D007205</t>
+  </si>
+  <si>
+    <t>D007206</t>
+  </si>
+  <si>
+    <t>D007207</t>
+  </si>
+  <si>
+    <t>D007208</t>
+  </si>
+  <si>
+    <t>D007209</t>
+  </si>
+  <si>
+    <t>D007210</t>
+  </si>
+  <si>
+    <t>D007211</t>
+  </si>
+  <si>
+    <t>D007298</t>
+  </si>
+  <si>
+    <t>D007299</t>
+  </si>
+  <si>
+    <t>D007300</t>
+  </si>
+  <si>
+    <t>D007301</t>
+  </si>
+  <si>
+    <t>D007302</t>
+  </si>
+  <si>
+    <t>D007303</t>
+  </si>
+  <si>
+    <t>D007304</t>
+  </si>
+  <si>
+    <t>D007305</t>
+  </si>
+  <si>
+    <t>D007306</t>
+  </si>
+  <si>
+    <t>D007307</t>
+  </si>
+  <si>
+    <t>D007308</t>
+  </si>
+  <si>
+    <t>D007309</t>
+  </si>
+  <si>
+    <t>D007420</t>
+  </si>
+  <si>
+    <t>D007421</t>
+  </si>
+  <si>
+    <t>D007422</t>
+  </si>
+  <si>
+    <t>D007423</t>
+  </si>
+  <si>
+    <t>D007424</t>
+  </si>
+  <si>
+    <t>D007425</t>
+  </si>
+  <si>
+    <t>D007426</t>
+  </si>
+  <si>
+    <t>D007427</t>
+  </si>
+  <si>
+    <t>D007428</t>
+  </si>
+  <si>
+    <t>D007429</t>
+  </si>
+  <si>
+    <t>D007430</t>
+  </si>
+  <si>
+    <t>D007431</t>
+  </si>
+  <si>
+    <t>D007432</t>
   </si>
 </sst>
 </file>
@@ -1349,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEBB392-C697-4F51-BDA2-5659AA5842EC}">
-  <dimension ref="A1:Q508"/>
+  <dimension ref="A1:Q512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1373,7 +1373,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="B3" s="5">
         <v>45935.75277777778</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B4" s="5">
         <v>45935.761805555558</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="B5" s="5">
         <v>45935.763888888891</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="B6" s="5">
         <v>45935.768750000003</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="B7" s="5">
         <v>45935.77847222222</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5">
         <v>45935.783449074072</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5">
         <v>45935.786805555559</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="B11" s="5">
         <v>45937.76458333333</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="B12" s="5">
         <v>45937.765277777777</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5">
         <v>45937.76666666667</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="B14" s="5">
         <v>45937.766724537039</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="B15" s="5">
         <v>45937.768055555556</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5">
         <v>45937.770138888889</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="B17" s="5">
         <v>45937.770833333336</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="B18" s="5">
         <v>45937.770925925928</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="B19" s="5">
         <v>45937.771087962959</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="B21" s="5">
         <v>45939.772222222222</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5">
         <v>45939.772326388891</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="B23" s="5">
         <v>45939.773611111108</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="B24" s="5">
         <v>45939.775694444441</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="B25" s="5">
         <v>45939.775972222225</v>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="B26" s="5">
         <v>45939.777280092596</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="B28" s="5">
         <v>45941.777604166666</v>
@@ -2236,10 +2236,10 @@
         <v>6</v>
       </c>
       <c r="E28" s="5">
-        <v>45939.754861111112</v>
+        <v>45941.754861111112</v>
       </c>
       <c r="F28" s="5">
-        <v>45940.756944444445</v>
+        <v>45941.756944444445</v>
       </c>
       <c r="G28" s="4">
         <v>3</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="B29" s="5">
         <v>45941.777696759258</v>
@@ -2271,10 +2271,10 @@
         <v>6</v>
       </c>
       <c r="E29" s="5">
-        <v>45939.757638888892</v>
+        <v>45941.757638888892</v>
       </c>
       <c r="F29" s="5">
-        <v>45940.76666666667</v>
+        <v>45941.76666666667</v>
       </c>
       <c r="G29" s="4">
         <v>13.7</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="B30" s="5">
         <v>45941.779282407406</v>
@@ -2306,10 +2306,10 @@
         <v>5</v>
       </c>
       <c r="E30" s="5">
-        <v>45939.763888888891</v>
+        <v>45941.763888888891</v>
       </c>
       <c r="F30" s="5">
-        <v>45940.785416666666</v>
+        <v>45941.785416666666</v>
       </c>
       <c r="G30" s="4">
         <v>31.1</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="B31" s="5">
         <v>45941.780057870368</v>
@@ -2341,10 +2341,10 @@
         <v>5</v>
       </c>
       <c r="E31" s="5">
-        <v>45939.768750000003</v>
+        <v>45941.768750000003</v>
       </c>
       <c r="F31" s="5">
-        <v>45940.777777777781</v>
+        <v>45941.777777777781</v>
       </c>
       <c r="G31" s="4">
         <v>12.5</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="B32" s="5">
         <v>45941.780555555553</v>
@@ -2376,10 +2376,10 @@
         <v>3</v>
       </c>
       <c r="E32" s="5">
-        <v>45939.772222222222</v>
+        <v>45941.772222222222</v>
       </c>
       <c r="F32" s="5">
-        <v>45940.788194444445</v>
+        <v>45941.788194444445</v>
       </c>
       <c r="G32" s="4">
         <v>22.7</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="B33" s="5">
         <v>45941.78125</v>
@@ -2411,10 +2411,10 @@
         <v>7</v>
       </c>
       <c r="E33" s="5">
-        <v>45939.776388888888</v>
+        <v>45941.776388888888</v>
       </c>
       <c r="F33" s="5">
-        <v>45940.779861111114</v>
+        <v>45941.779861111114</v>
       </c>
       <c r="G33" s="4">
         <v>5.2</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="B34" s="5">
         <v>45941.780555555553</v>
@@ -2446,10 +2446,10 @@
         <v>4</v>
       </c>
       <c r="E34" s="5">
-        <v>45939.780555555553</v>
+        <v>45941.780555555553</v>
       </c>
       <c r="F34" s="5">
-        <v>45940.800000000003</v>
+        <v>45941.8</v>
       </c>
       <c r="G34" s="4">
         <v>27.8</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="B35" s="5">
         <v>45941.782638888886</v>
@@ -2481,10 +2481,10 @@
         <v>7</v>
       </c>
       <c r="E35" s="5">
-        <v>45939.784722222219</v>
+        <v>45941.784722222219</v>
       </c>
       <c r="F35" s="5">
-        <v>45940.796527777777</v>
+        <v>45941.796527777777</v>
       </c>
       <c r="G35" s="4">
         <v>17.3</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="B36" s="5">
         <v>45941.77138888889</v>
@@ -2516,10 +2516,10 @@
         <v>5</v>
       </c>
       <c r="E36" s="5">
-        <v>45939.786111111112</v>
+        <v>45941.786111111112</v>
       </c>
       <c r="F36" s="5">
-        <v>45940.789583333331</v>
+        <v>45941.789583333331</v>
       </c>
       <c r="G36" s="4">
         <v>4.9000000000000004</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="B37" s="5">
         <v>45941.771527777775</v>
@@ -2551,10 +2551,10 @@
         <v>4</v>
       </c>
       <c r="E37" s="5">
-        <v>45939.789583333331</v>
+        <v>45941.789583333331</v>
       </c>
       <c r="F37" s="5">
-        <v>45940.799305555556</v>
+        <v>45941.799305555556</v>
       </c>
       <c r="G37" s="4">
         <v>13.6</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="B39" s="5">
         <v>45942.786111111112</v>
@@ -2599,10 +2599,10 @@
         <v>2</v>
       </c>
       <c r="E39" s="5">
-        <v>45939.751388888886</v>
+        <v>45942.751388888886</v>
       </c>
       <c r="F39" s="5">
-        <v>45940.765972222223</v>
+        <v>45942.765972222223</v>
       </c>
       <c r="G39" s="4">
         <v>21.3</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="B40" s="5">
         <v>45942.787499999999</v>
@@ -2634,10 +2634,10 @@
         <v>5</v>
       </c>
       <c r="E40" s="5">
-        <v>45939.757638888892</v>
+        <v>45942.757638888892</v>
       </c>
       <c r="F40" s="5">
-        <v>45940.763888888891</v>
+        <v>45942.763888888891</v>
       </c>
       <c r="G40" s="4">
         <v>8.6999999999999993</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="B41" s="5">
         <v>45942.789583333331</v>
@@ -2669,10 +2669,10 @@
         <v>6</v>
       </c>
       <c r="E41" s="5">
-        <v>45939.761111111111</v>
+        <v>45942.761111111111</v>
       </c>
       <c r="F41" s="5">
-        <v>45940.772222222222</v>
+        <v>45942.772222222222</v>
       </c>
       <c r="G41" s="4">
         <v>16.100000000000001</v>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="B42" s="5">
         <v>45942.786111111112</v>
@@ -2704,10 +2704,10 @@
         <v>6</v>
       </c>
       <c r="E42" s="5">
-        <v>45939.763888888891</v>
+        <v>45942.763888888891</v>
       </c>
       <c r="F42" s="5">
-        <v>45940.788194444445</v>
+        <v>45942.788194444445</v>
       </c>
       <c r="G42" s="4">
         <v>35.5</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="B43" s="5">
         <v>45942.786111111112</v>
@@ -2739,10 +2739,10 @@
         <v>4</v>
       </c>
       <c r="E43" s="5">
-        <v>45939.772222222222</v>
+        <v>45942.772222222222</v>
       </c>
       <c r="F43" s="5">
-        <v>45940.790277777778</v>
+        <v>45942.790277777778</v>
       </c>
       <c r="G43" s="4">
         <v>26</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="B44" s="5">
         <v>45942.786111111112</v>
@@ -2774,10 +2774,10 @@
         <v>5</v>
       </c>
       <c r="E44" s="5">
-        <v>45939.777777777781</v>
+        <v>45942.777777777781</v>
       </c>
       <c r="F44" s="5">
-        <v>45940.783333333333</v>
+        <v>45942.783333333333</v>
       </c>
       <c r="G44" s="4">
         <v>8.3000000000000007</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="B45" s="5">
         <v>45942.786111111112</v>
@@ -2809,10 +2809,10 @@
         <v>3</v>
       </c>
       <c r="E45" s="5">
-        <v>45939.784722222219</v>
+        <v>45942.784722222219</v>
       </c>
       <c r="F45" s="5">
-        <v>45940.798611111109</v>
+        <v>45942.798611111109</v>
       </c>
       <c r="G45" s="4">
         <v>20.7</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="B46" s="5">
         <v>45942.786111111112</v>
@@ -2844,10 +2844,10 @@
         <v>5</v>
       </c>
       <c r="E46" s="5">
-        <v>45939.788888888892</v>
+        <v>45942.788888888892</v>
       </c>
       <c r="F46" s="5">
-        <v>45940.797222222223</v>
+        <v>45942.797222222223</v>
       </c>
       <c r="G46" s="4">
         <v>12.4</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="B47" s="5">
         <v>45942.786111111112</v>
@@ -2879,10 +2879,10 @@
         <v>4</v>
       </c>
       <c r="E47" s="5">
-        <v>45939.790972222225</v>
+        <v>45942.790972222225</v>
       </c>
       <c r="F47" s="5">
-        <v>45940.807638888888</v>
+        <v>45942.807638888888</v>
       </c>
       <c r="G47" s="4">
         <v>23.8</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="49" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2958,2206 +2958,2246 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="5">
+        <v>45935.75277777778</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="4">
+        <v>3</v>
+      </c>
+      <c r="E51" s="5">
+        <v>45935.75277777778</v>
+      </c>
+      <c r="F51" s="5">
+        <v>45940.442916666667</v>
+      </c>
+      <c r="G51" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H51" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="5">
+        <v>45935.761805555558</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="4">
+        <v>6</v>
+      </c>
+      <c r="E52" s="5">
+        <v>45935.761805555558</v>
+      </c>
+      <c r="F52" s="5">
+        <v>45943.864027777781</v>
+      </c>
+      <c r="G52" s="4">
+        <v>13.2</v>
+      </c>
+      <c r="H52" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="5">
+        <v>45935.763888888891</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="4">
+        <v>5</v>
+      </c>
+      <c r="E53" s="5">
+        <v>45935.763888888891</v>
+      </c>
+      <c r="F53" s="5">
+        <v>45935.773472222223</v>
+      </c>
+      <c r="G53" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="H53" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="5">
+        <v>45935.75277777778</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="4">
+        <v>4</v>
+      </c>
+      <c r="E54" s="5">
+        <v>45935.75277777778</v>
+      </c>
+      <c r="F54" s="5">
+        <v>45954.805833333332</v>
+      </c>
+      <c r="G54" s="4">
+        <v>30.4</v>
+      </c>
+      <c r="H54" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="5">
+        <v>45935.75277777778</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2</v>
+      </c>
+      <c r="E55" s="5">
+        <v>45935.75277777778</v>
+      </c>
+      <c r="F55" s="5">
+        <v>45947.908194444448</v>
+      </c>
+      <c r="G55" s="4">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="H55" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="5">
+        <v>45935.75277777778</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2</v>
+      </c>
+      <c r="E56" s="5">
+        <v>45935.75277777778</v>
+      </c>
+      <c r="F56" s="5">
+        <v>45953.819027777776</v>
+      </c>
+      <c r="G56" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="H56" s="4">
+        <v>5</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="5">
+        <v>45935.75277777778</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="4">
+        <v>4</v>
+      </c>
+      <c r="E57" s="5">
+        <v>45935.75277777778</v>
+      </c>
+      <c r="F57" s="5">
+        <v>45939.686527777776</v>
+      </c>
+      <c r="G57" s="4">
+        <v>37.6</v>
+      </c>
+      <c r="H57" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="5">
+        <v>45935.75277777778</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="4">
+        <v>6</v>
+      </c>
+      <c r="E58" s="5">
+        <v>45935.75277777778</v>
+      </c>
+      <c r="F58" s="5">
+        <v>45945.881736111114</v>
+      </c>
+      <c r="G58" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="H58" s="4">
+        <v>3</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="5">
+        <v>45935.75277777778</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="4">
+        <v>4</v>
+      </c>
+      <c r="E59" s="5">
+        <v>45935.75277777778</v>
+      </c>
+      <c r="F59" s="5">
+        <v>45940.740902777776</v>
+      </c>
+      <c r="G59" s="4">
+        <v>21.9</v>
+      </c>
+      <c r="H59" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="5">
+        <v>45935.75277777778</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2</v>
+      </c>
+      <c r="E60" s="5">
+        <v>45935.75277777778</v>
+      </c>
+      <c r="F60" s="5">
+        <v>45937.534375000003</v>
+      </c>
+      <c r="G60" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="H60" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="5">
+        <v>45937.76458333333</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="4">
+        <v>5</v>
+      </c>
+      <c r="E62" s="5">
+        <v>45937.76458333333</v>
+      </c>
+      <c r="F62" s="5">
+        <v>45944.824652777781</v>
+      </c>
+      <c r="G62" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="H62" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="5">
+        <v>45937.765277777777</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="4">
+        <v>4</v>
+      </c>
+      <c r="E63" s="5">
+        <v>45937.765277777777</v>
+      </c>
+      <c r="F63" s="5">
+        <v>45944.565208333333</v>
+      </c>
+      <c r="G63" s="4">
+        <v>24.9</v>
+      </c>
+      <c r="H63" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="5">
+        <v>45937.76666666667</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="4">
+        <v>3</v>
+      </c>
+      <c r="E64" s="5">
+        <v>45937.76666666667</v>
+      </c>
+      <c r="F64" s="5">
+        <v>45938.856041666666</v>
+      </c>
+      <c r="G64" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="H64" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="F65" s="5">
+        <v>45939.791805555556</v>
+      </c>
+      <c r="G65" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="H65" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="4">
+        <v>5</v>
+      </c>
+      <c r="E66" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="F66" s="5">
+        <v>45937.597291666665</v>
+      </c>
+      <c r="G66" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="H66" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="4">
+        <v>5</v>
+      </c>
+      <c r="E67" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="F67" s="5">
+        <v>45954.794652777775</v>
+      </c>
+      <c r="G67" s="4">
+        <v>21.3</v>
+      </c>
+      <c r="H67" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="4">
+        <v>6</v>
+      </c>
+      <c r="E68" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="F68" s="5">
+        <v>45941.766041666669</v>
+      </c>
+      <c r="G68" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="H68" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="F69" s="5">
+        <v>45944.395208333335</v>
+      </c>
+      <c r="G69" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="H69" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="4">
+        <v>2</v>
+      </c>
+      <c r="E70" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="F70" s="5">
+        <v>45938.819444444445</v>
+      </c>
+      <c r="G70" s="4">
+        <v>57</v>
+      </c>
+      <c r="H70" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="4">
+        <v>4</v>
+      </c>
+      <c r="E71" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="F71" s="5">
+        <v>45949.547777777778</v>
+      </c>
+      <c r="G71" s="4">
+        <v>23.8</v>
+      </c>
+      <c r="H71" s="4">
+        <v>5</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="4">
+        <v>6</v>
+      </c>
+      <c r="E72" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="F72" s="5">
+        <v>45935.506666666668</v>
+      </c>
+      <c r="G72" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="H72" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="4">
+        <v>5</v>
+      </c>
+      <c r="E73" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="F73" s="5">
+        <v>45950.78875</v>
+      </c>
+      <c r="G73" s="4">
+        <v>24.8</v>
+      </c>
+      <c r="H73" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" s="4">
+        <v>4</v>
+      </c>
+      <c r="E74" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="F74" s="5">
+        <v>45940.58520833333</v>
+      </c>
+      <c r="G74" s="4">
+        <v>13.7</v>
+      </c>
+      <c r="H74" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="4">
+        <v>3</v>
+      </c>
+      <c r="E75" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="F75" s="5">
+        <v>45945.554097222222</v>
+      </c>
+      <c r="G75" s="4">
+        <v>26.9</v>
+      </c>
+      <c r="H75" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="4">
+        <v>6</v>
+      </c>
+      <c r="E76" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="F76" s="5">
+        <v>45955.636666666665</v>
+      </c>
+      <c r="G76" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H76" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="4">
+        <v>4</v>
+      </c>
+      <c r="E77" s="5">
+        <v>45937.764583275464</v>
+      </c>
+      <c r="F77" s="5">
+        <v>45940.55840277778</v>
+      </c>
+      <c r="G77" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H77" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+    </row>
+    <row r="79" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" s="5">
+        <v>45939.772222222222</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="4">
+        <v>4</v>
+      </c>
+      <c r="E79" s="5">
+        <v>45939.772222222222</v>
+      </c>
+      <c r="F79" s="5">
+        <v>45948.87027777778</v>
+      </c>
+      <c r="G79" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="H79" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80" s="5">
+        <v>45939.772326388891</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1</v>
+      </c>
+      <c r="E80" s="5">
+        <v>45939.772326388891</v>
+      </c>
+      <c r="F80" s="5">
+        <v>45943.844861111109</v>
+      </c>
+      <c r="G80" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H80" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" s="5">
+        <v>45939.773611111108</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="4">
+        <v>6</v>
+      </c>
+      <c r="E81" s="5">
+        <v>45939.773611111108</v>
+      </c>
+      <c r="F81" s="5">
+        <v>45949.786944444444</v>
+      </c>
+      <c r="G81" s="4">
+        <v>28.2</v>
+      </c>
+      <c r="H81" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" s="5">
+        <v>45939.772222164349</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" s="4">
+        <v>5</v>
+      </c>
+      <c r="E82" s="5">
+        <v>45939.772222164349</v>
+      </c>
+      <c r="F82" s="5">
+        <v>45953.646249999998</v>
+      </c>
+      <c r="G82" s="4">
+        <v>34.6</v>
+      </c>
+      <c r="H82" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="5">
+        <v>45939.772222164349</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" s="4">
+        <v>4</v>
+      </c>
+      <c r="E83" s="5">
+        <v>45939.772222164349</v>
+      </c>
+      <c r="F83" s="5">
+        <v>45938.872152777774</v>
+      </c>
+      <c r="G83" s="4">
+        <v>23.9</v>
+      </c>
+      <c r="H83" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="5">
+        <v>45939.772222164349</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="4">
+        <v>3</v>
+      </c>
+      <c r="E84" s="5">
+        <v>45939.772222164349</v>
+      </c>
+      <c r="F84" s="5">
+        <v>45950.843472222223</v>
+      </c>
+      <c r="G84" s="4">
+        <v>54.6</v>
+      </c>
+      <c r="H84" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" s="5">
+        <v>45939.772222164349</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4">
+        <v>3</v>
+      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4">
+        <v>6</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="1">
-        <v>45940.433333333334</v>
-      </c>
-      <c r="C51" t="s">
+    </row>
+    <row r="86" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" s="5">
+        <v>45939.772222164349</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="4">
+        <v>5</v>
+      </c>
+      <c r="E86" s="5">
+        <v>45939.772222222222</v>
+      </c>
+      <c r="F86" s="5">
+        <v>45949.523611111108</v>
+      </c>
+      <c r="G86" s="4">
+        <v>10</v>
+      </c>
+      <c r="H86" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" s="5">
+        <v>45939.772222164349</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="4">
+        <v>4</v>
+      </c>
+      <c r="E87" s="5">
+        <v>45939.772326388891</v>
+      </c>
+      <c r="F87" s="5">
+        <v>45940.542083333334</v>
+      </c>
+      <c r="G87" s="4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H87" s="4">
+        <v>6</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B88" s="5">
+        <v>45939.772222164349</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="4">
+        <v>6</v>
+      </c>
+      <c r="E88" s="5">
+        <v>45939.773611111108</v>
+      </c>
+      <c r="F88" s="5">
+        <v>45943.849027777775</v>
+      </c>
+      <c r="G88" s="4">
+        <v>20.6</v>
+      </c>
+      <c r="H88" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" s="5">
+        <v>45939.772222164349</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89" s="5">
+        <v>45939.772222164349</v>
+      </c>
+      <c r="F89" s="5">
+        <v>45949.860833333332</v>
+      </c>
+      <c r="G89" s="4">
+        <v>24.6</v>
+      </c>
+      <c r="H89" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B90" s="5">
+        <v>45939.772222164349</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90" s="5">
+        <v>45939.772222164349</v>
+      </c>
+      <c r="F90" s="5">
+        <v>45935.978402777779</v>
+      </c>
+      <c r="G90" s="4">
+        <v>42.9</v>
+      </c>
+      <c r="H90" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="4"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+    </row>
+    <row r="92" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B92" s="5">
+        <v>45941.777604166666</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="4">
+        <v>5</v>
+      </c>
+      <c r="E92" s="5">
+        <v>45941.777604166666</v>
+      </c>
+      <c r="F92" s="5">
+        <v>45954.861319444448</v>
+      </c>
+      <c r="G92" s="4">
+        <v>24.3</v>
+      </c>
+      <c r="H92" s="4">
+        <v>6</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" s="5">
+        <v>45941.777696759258</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="4">
+        <v>2</v>
+      </c>
+      <c r="E93" s="5">
+        <v>45941.777696759258</v>
+      </c>
+      <c r="F93" s="5">
+        <v>45944.811736111114</v>
+      </c>
+      <c r="G93" s="4">
+        <v>24.9</v>
+      </c>
+      <c r="H93" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" s="5">
+        <v>45941.779282407406</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" s="4">
+        <v>3</v>
+      </c>
+      <c r="E94" s="5">
+        <v>45941.779282407406</v>
+      </c>
+      <c r="F94" s="5">
+        <v>45951.735208333332</v>
+      </c>
+      <c r="G94" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="H94" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B95" s="5">
+        <v>45941.777604108793</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" s="4">
+        <v>5</v>
+      </c>
+      <c r="E95" s="5">
+        <v>45941.777604108793</v>
+      </c>
+      <c r="F95" s="5">
+        <v>45949.906875000001</v>
+      </c>
+      <c r="G95" s="4">
+        <v>32.9</v>
+      </c>
+      <c r="H95" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" s="5">
+        <v>45941.777604108793</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D51">
+      <c r="D96" s="4">
         <v>3</v>
       </c>
-      <c r="E51" s="1">
-        <v>45940.436111111114</v>
-      </c>
-      <c r="F51" s="1">
-        <v>45940.442916666667</v>
-      </c>
-      <c r="G51">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="H51">
-        <v>2.7</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="E96" s="5">
+        <v>45941.777604108793</v>
+      </c>
+      <c r="F96" s="5">
+        <v>45946.848194444443</v>
+      </c>
+      <c r="G96" s="4">
+        <v>37.4</v>
+      </c>
+      <c r="H96" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" s="5">
+        <v>45941.777604108793</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="4">
+        <v>3</v>
+      </c>
+      <c r="E97" s="5">
+        <v>45941.777604108793</v>
+      </c>
+      <c r="F97" s="5">
+        <v>45954.510555555556</v>
+      </c>
+      <c r="G97" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H97" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="I97" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B98" s="5">
+        <v>45941.777604108793</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="4">
+        <v>3</v>
+      </c>
+      <c r="E98" s="5">
+        <v>45941.777604108793</v>
+      </c>
+      <c r="F98" s="5">
+        <v>45942.856319444443</v>
+      </c>
+      <c r="G98" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H98" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B99" s="5">
+        <v>45941.777604108793</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99" s="4">
+        <v>3</v>
+      </c>
+      <c r="E99" s="5">
+        <v>45941.777604108793</v>
+      </c>
+      <c r="F99" s="5">
+        <v>45948.791319444441</v>
+      </c>
+      <c r="G99" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="H99" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B100" s="5">
+        <v>45941.777604108793</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" s="4">
+        <v>5</v>
+      </c>
+      <c r="E100" s="5">
+        <v>45941.777604108793</v>
+      </c>
+      <c r="F100" s="5">
+        <v>45952.86791666667</v>
+      </c>
+      <c r="G100" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="H100" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B101" s="5">
+        <v>45941.777604108793</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="4">
+        <v>7</v>
+      </c>
+      <c r="E101" s="5">
+        <v>45941.777604108793</v>
+      </c>
+      <c r="F101" s="5">
+        <v>45936.808055555557</v>
+      </c>
+      <c r="G101" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="H101" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B102" s="5">
+        <v>45941.777604108793</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" s="4">
+        <v>1</v>
+      </c>
+      <c r="E102" s="5">
+        <v>45941.777604108793</v>
+      </c>
+      <c r="F102" s="5">
+        <v>45954.437638888892</v>
+      </c>
+      <c r="G102" s="4">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="H102" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J102" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="1">
-        <v>45943.854166666664</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="K102" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" s="5">
+        <v>45941.777604108793</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103" s="4">
+        <v>4</v>
+      </c>
+      <c r="E103" s="5">
+        <v>45941.777604108793</v>
+      </c>
+      <c r="F103" s="5">
+        <v>45946.806805555556</v>
+      </c>
+      <c r="G103" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="H103" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="4"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+    </row>
+    <row r="105" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105" s="5">
+        <v>45942.786111111112</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="4">
+        <v>4</v>
+      </c>
+      <c r="E105" s="5">
+        <v>45942.786111111112</v>
+      </c>
+      <c r="F105" s="5">
+        <v>45949.762361111112</v>
+      </c>
+      <c r="G105" s="4">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="H105" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106" s="5">
+        <v>45942.787499999999</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D106" s="4">
+        <v>4</v>
+      </c>
+      <c r="E106" s="5">
+        <v>45942.787499999999</v>
+      </c>
+      <c r="F106" s="5">
+        <v>45950.855763888889</v>
+      </c>
+      <c r="G106" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="H106" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B107" s="5">
+        <v>45942.789583333331</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4">
+        <v>0</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B108" s="5">
+        <v>45942.786111111112</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" s="4">
+        <v>2</v>
+      </c>
+      <c r="E108" s="5">
+        <v>45942.786111111112</v>
+      </c>
+      <c r="F108" s="5">
+        <v>45948.686041666668</v>
+      </c>
+      <c r="G108" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="H108" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B109" s="5">
+        <v>45942.787499999999</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D109" s="4">
+        <v>6</v>
+      </c>
+      <c r="E109" s="5">
+        <v>45942.787499999999</v>
+      </c>
+      <c r="F109" s="5">
+        <v>45937.475555555553</v>
+      </c>
+      <c r="G109" s="4">
+        <v>17.8</v>
+      </c>
+      <c r="H109" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B110" s="5">
+        <v>45942.789583333331</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" s="4">
+        <v>7</v>
+      </c>
+      <c r="E110" s="5">
+        <v>45942.789583333331</v>
+      </c>
+      <c r="F110" s="5">
+        <v>45956.543124999997</v>
+      </c>
+      <c r="G110" s="4">
+        <v>35.1</v>
+      </c>
+      <c r="H110" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B111" s="5">
+        <v>45942.786111111112</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="4">
+        <v>2</v>
+      </c>
+      <c r="E111" s="5">
+        <v>45942.786111111112</v>
+      </c>
+      <c r="F111" s="5">
+        <v>45939.813472222224</v>
+      </c>
+      <c r="G111" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="H111" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B112" s="5">
+        <v>45942.786111111112</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D112" s="4">
+        <v>4</v>
+      </c>
+      <c r="E112" s="5">
+        <v>45942.786111111112</v>
+      </c>
+      <c r="F112" s="5">
+        <v>45954.883263888885</v>
+      </c>
+      <c r="G112" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H112" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B113" s="5">
+        <v>45942.786111111112</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D113" s="4">
+        <v>4</v>
+      </c>
+      <c r="E113" s="5">
+        <v>45942.786111111112</v>
+      </c>
+      <c r="F113" s="5">
+        <v>45937.535208333335</v>
+      </c>
+      <c r="G113" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="H113" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114" s="5">
+        <v>45942.786111111112</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" s="4">
+        <v>5</v>
+      </c>
+      <c r="E114" s="5">
+        <v>45942.786111111112</v>
+      </c>
+      <c r="F114" s="5">
+        <v>45953.795486111114</v>
+      </c>
+      <c r="G114" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="H114" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B115" s="5">
+        <v>45942.786111111112</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D52">
-        <v>6</v>
-      </c>
-      <c r="E52" s="1">
-        <v>45943.854861111111</v>
-      </c>
-      <c r="F52" s="1">
-        <v>45943.864027777781</v>
-      </c>
-      <c r="G52">
-        <v>13.2</v>
-      </c>
-      <c r="H52">
-        <v>2.8</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="D115" s="4">
+        <v>5</v>
+      </c>
+      <c r="E115" s="5">
+        <v>45942.786111111112</v>
+      </c>
+      <c r="F115" s="5">
+        <v>45941.809583333335</v>
+      </c>
+      <c r="G115" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="H115" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I115" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J52" t="s">
-        <v>22</v>
-      </c>
-      <c r="K52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" s="1">
-        <v>45935.760416666664</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="J115" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B116" s="5">
+        <v>45942.786111111112</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="4">
+        <v>2</v>
+      </c>
+      <c r="E116" s="5">
+        <v>45942.786111111112</v>
+      </c>
+      <c r="F116" s="5">
+        <v>45947.935416666667</v>
+      </c>
+      <c r="G116" s="4">
         <v>23</v>
       </c>
-      <c r="D53">
+      <c r="H116" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B117" s="5">
+        <v>45942.786111111112</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="4">
         <v>5</v>
       </c>
-      <c r="E53" s="1">
-        <v>45935.763194444444</v>
-      </c>
-      <c r="F53" s="1">
-        <v>45935.773472222223</v>
-      </c>
-      <c r="G53">
-        <v>14.8</v>
-      </c>
-      <c r="H53">
-        <v>4.8</v>
-      </c>
-      <c r="I53" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="E117" s="5">
+        <v>45942.786111111112</v>
+      </c>
+      <c r="F117" s="5">
+        <v>45939.634027777778</v>
+      </c>
+      <c r="G117" s="4">
+        <v>27</v>
+      </c>
+      <c r="H117" s="4">
+        <v>5</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J117" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="1">
-        <v>45954.782638888886</v>
-      </c>
-      <c r="C54" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54">
-        <v>4</v>
-      </c>
-      <c r="E54" s="1">
-        <v>45954.784722222219</v>
-      </c>
-      <c r="F54" s="1">
-        <v>45954.805833333332</v>
-      </c>
-      <c r="G54">
-        <v>30.4</v>
-      </c>
-      <c r="H54">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I54" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" t="s">
-        <v>13</v>
-      </c>
-      <c r="K54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="1">
-        <v>45947.883333333331</v>
-      </c>
-      <c r="C55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55" s="1">
-        <v>45947.885416666664</v>
-      </c>
-      <c r="F55" s="1">
-        <v>45947.908194444448</v>
-      </c>
-      <c r="G55">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="H55">
-        <v>5.7</v>
-      </c>
-      <c r="I55" t="s">
-        <v>21</v>
-      </c>
-      <c r="J55" t="s">
-        <v>13</v>
-      </c>
-      <c r="K55" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="1">
-        <v>45953.806944444441</v>
-      </c>
-      <c r="C56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56" s="1">
-        <v>45953.80972222222</v>
-      </c>
-      <c r="F56" s="1">
-        <v>45953.819027777776</v>
-      </c>
-      <c r="G56">
-        <v>13.4</v>
-      </c>
-      <c r="H56">
-        <v>5</v>
-      </c>
-      <c r="I56" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" t="s">
-        <v>16</v>
-      </c>
-      <c r="K56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="1">
-        <v>45939.656944444447</v>
-      </c>
-      <c r="C57" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57">
-        <v>4</v>
-      </c>
-      <c r="E57" s="1">
-        <v>45939.660416666666</v>
-      </c>
-      <c r="F57" s="1">
-        <v>45939.686527777776</v>
-      </c>
-      <c r="G57">
-        <v>37.6</v>
-      </c>
-      <c r="H57">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" t="s">
-        <v>16</v>
-      </c>
-      <c r="K57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="1">
-        <v>45945.870138888888</v>
-      </c>
-      <c r="C58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58">
-        <v>6</v>
-      </c>
-      <c r="E58" s="1">
-        <v>45945.872916666667</v>
-      </c>
-      <c r="F58" s="1">
-        <v>45945.881736111114</v>
-      </c>
-      <c r="G58">
-        <v>12.7</v>
-      </c>
-      <c r="H58">
-        <v>3</v>
-      </c>
-      <c r="I58" t="s">
-        <v>18</v>
-      </c>
-      <c r="J58" t="s">
-        <v>13</v>
-      </c>
-      <c r="K58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" s="1">
-        <v>45940.723611111112</v>
-      </c>
-      <c r="C59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59">
-        <v>4</v>
-      </c>
-      <c r="E59" s="1">
-        <v>45940.725694444445</v>
-      </c>
-      <c r="F59" s="1">
-        <v>45940.740902777776</v>
-      </c>
-      <c r="G59">
-        <v>21.9</v>
-      </c>
-      <c r="H59">
-        <v>3.7</v>
-      </c>
-      <c r="I59" t="s">
-        <v>21</v>
-      </c>
-      <c r="J59" t="s">
-        <v>13</v>
-      </c>
-      <c r="K59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" s="1">
-        <v>45937.518055555556</v>
-      </c>
-      <c r="C60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60" s="1">
-        <v>45937.518750000003</v>
-      </c>
-      <c r="F60" s="1">
-        <v>45937.534375000003</v>
-      </c>
-      <c r="G60">
-        <v>22.5</v>
-      </c>
-      <c r="H60">
-        <v>6.2</v>
-      </c>
-      <c r="I60" t="s">
-        <v>18</v>
-      </c>
-      <c r="J60" t="s">
-        <v>16</v>
-      </c>
-      <c r="K60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" s="1">
-        <v>45944.807638888888</v>
-      </c>
-      <c r="C61" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61">
-        <v>5</v>
-      </c>
-      <c r="E61" s="1">
-        <v>45944.811111111114</v>
-      </c>
-      <c r="F61" s="1">
-        <v>45944.824652777781</v>
-      </c>
-      <c r="G61">
-        <v>19.5</v>
-      </c>
-      <c r="H61">
-        <v>5.4</v>
-      </c>
-      <c r="I61" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" t="s">
-        <v>22</v>
-      </c>
-      <c r="K61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62" s="1">
-        <v>45944.546527777777</v>
-      </c>
-      <c r="C62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62">
-        <v>4</v>
-      </c>
-      <c r="E62" s="1">
-        <v>45944.54791666667</v>
-      </c>
-      <c r="F62" s="1">
-        <v>45944.565208333333</v>
-      </c>
-      <c r="G62">
-        <v>24.9</v>
-      </c>
-      <c r="H62">
-        <v>5.3</v>
-      </c>
-      <c r="I62" t="s">
-        <v>18</v>
-      </c>
-      <c r="J62" t="s">
-        <v>13</v>
-      </c>
-      <c r="K62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>45</v>
-      </c>
-      <c r="B63" s="1">
-        <v>45938.845833333333</v>
-      </c>
-      <c r="C63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63">
-        <v>3</v>
-      </c>
-      <c r="E63" s="1">
-        <v>45938.847222222219</v>
-      </c>
-      <c r="F63" s="1">
-        <v>45938.856041666666</v>
-      </c>
-      <c r="G63">
-        <v>12.7</v>
-      </c>
-      <c r="H63">
-        <v>3.9</v>
-      </c>
-      <c r="I63" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" t="s">
-        <v>13</v>
-      </c>
-      <c r="K63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>46</v>
-      </c>
-      <c r="B64" s="1">
-        <v>45939.783333333333</v>
-      </c>
-      <c r="C64" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" s="1">
-        <v>45939.78402777778</v>
-      </c>
-      <c r="F64" s="1">
-        <v>45939.791805555556</v>
-      </c>
-      <c r="G64">
-        <v>11.2</v>
-      </c>
-      <c r="H64">
-        <v>3.3</v>
-      </c>
-      <c r="I64" t="s">
-        <v>18</v>
-      </c>
-      <c r="J64" t="s">
-        <v>13</v>
-      </c>
-      <c r="K64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="1">
-        <v>45937.586111111108</v>
-      </c>
-      <c r="C65" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65">
-        <v>5</v>
-      </c>
-      <c r="E65" s="1">
-        <v>45937.586805555555</v>
-      </c>
-      <c r="F65" s="1">
-        <v>45937.597291666665</v>
-      </c>
-      <c r="G65">
-        <v>15.1</v>
-      </c>
-      <c r="H65">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I65" t="s">
-        <v>21</v>
-      </c>
-      <c r="J65" t="s">
-        <v>16</v>
-      </c>
-      <c r="K65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>48</v>
-      </c>
-      <c r="B66" s="1">
-        <v>45954.777083333334</v>
-      </c>
-      <c r="C66" t="s">
-        <v>27</v>
-      </c>
-      <c r="D66">
-        <v>5</v>
-      </c>
-      <c r="E66" s="1">
-        <v>45954.779861111114</v>
-      </c>
-      <c r="F66" s="1">
-        <v>45954.794652777775</v>
-      </c>
-      <c r="G66">
-        <v>21.3</v>
-      </c>
-      <c r="H66">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I66" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" t="s">
-        <v>13</v>
-      </c>
-      <c r="K66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" s="1">
-        <v>45941.761111111111</v>
-      </c>
-      <c r="C67" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67">
-        <v>6</v>
-      </c>
-      <c r="E67" s="1">
-        <v>45941.761805555558</v>
-      </c>
-      <c r="F67" s="1">
-        <v>45941.766041666669</v>
-      </c>
-      <c r="G67">
-        <v>6.1</v>
-      </c>
-      <c r="H67">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I67" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" t="s">
-        <v>13</v>
-      </c>
-      <c r="K67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>50</v>
-      </c>
-      <c r="B68" s="1">
-        <v>45944.387499999997</v>
-      </c>
-      <c r="C68" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68" s="1">
-        <v>45944.390972222223</v>
-      </c>
-      <c r="F68" s="1">
-        <v>45944.395208333335</v>
-      </c>
-      <c r="G68">
-        <v>6.1</v>
-      </c>
-      <c r="H68">
-        <v>1.6</v>
-      </c>
-      <c r="I68" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" t="s">
-        <v>13</v>
-      </c>
-      <c r="K68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>51</v>
-      </c>
-      <c r="B69" s="1">
-        <v>45938.77847222222</v>
-      </c>
-      <c r="C69" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-      <c r="E69" s="1">
-        <v>45938.779861111114</v>
-      </c>
-      <c r="F69" s="1">
-        <v>45938.819444444445</v>
-      </c>
-      <c r="G69">
-        <v>57</v>
-      </c>
-      <c r="H69">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I69" t="s">
-        <v>21</v>
-      </c>
-      <c r="J69" t="s">
-        <v>13</v>
-      </c>
-      <c r="K69" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>52</v>
-      </c>
-      <c r="B70" s="1">
-        <v>45949.530555555553</v>
-      </c>
-      <c r="C70" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70">
-        <v>4</v>
-      </c>
-      <c r="E70" s="1">
-        <v>45949.53125</v>
-      </c>
-      <c r="F70" s="1">
-        <v>45949.547777777778</v>
-      </c>
-      <c r="G70">
-        <v>23.8</v>
-      </c>
-      <c r="H70">
-        <v>5</v>
-      </c>
-      <c r="I70" t="s">
-        <v>18</v>
-      </c>
-      <c r="J70" t="s">
-        <v>13</v>
-      </c>
-      <c r="K70" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>53</v>
-      </c>
-      <c r="B71" s="1">
-        <v>45935.488194444442</v>
-      </c>
-      <c r="C71" t="s">
-        <v>28</v>
-      </c>
-      <c r="D71">
-        <v>6</v>
-      </c>
-      <c r="E71" s="1">
-        <v>45935.490277777775</v>
-      </c>
-      <c r="F71" s="1">
-        <v>45935.506666666668</v>
-      </c>
-      <c r="G71">
-        <v>23.6</v>
-      </c>
-      <c r="H71">
-        <v>5.7</v>
-      </c>
-      <c r="I71" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" t="s">
-        <v>16</v>
-      </c>
-      <c r="K71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>54</v>
-      </c>
-      <c r="B72" s="1">
-        <v>45950.769444444442</v>
-      </c>
-      <c r="C72" t="s">
-        <v>26</v>
-      </c>
-      <c r="D72">
-        <v>5</v>
-      </c>
-      <c r="E72" s="1">
-        <v>45950.771527777775</v>
-      </c>
-      <c r="F72" s="1">
-        <v>45950.78875</v>
-      </c>
-      <c r="G72">
-        <v>24.8</v>
-      </c>
-      <c r="H72">
-        <v>6.1</v>
-      </c>
-      <c r="I72" t="s">
-        <v>18</v>
-      </c>
-      <c r="J72" t="s">
-        <v>13</v>
-      </c>
-      <c r="K72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73" s="1">
-        <v>45940.572222222225</v>
-      </c>
-      <c r="C73" t="s">
-        <v>31</v>
-      </c>
-      <c r="D73">
-        <v>4</v>
-      </c>
-      <c r="E73" s="1">
-        <v>45940.575694444444</v>
-      </c>
-      <c r="F73" s="1">
-        <v>45940.58520833333</v>
-      </c>
-      <c r="G73">
-        <v>13.7</v>
-      </c>
-      <c r="H73">
-        <v>3.3</v>
-      </c>
-      <c r="I73" t="s">
-        <v>21</v>
-      </c>
-      <c r="J73" t="s">
-        <v>16</v>
-      </c>
-      <c r="K73" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>56</v>
-      </c>
-      <c r="B74" s="1">
-        <v>45945.53402777778</v>
-      </c>
-      <c r="C74" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74" s="1">
-        <v>45945.535416666666</v>
-      </c>
-      <c r="F74" s="1">
-        <v>45945.554097222222</v>
-      </c>
-      <c r="G74">
-        <v>26.9</v>
-      </c>
-      <c r="H74">
-        <v>6.3</v>
-      </c>
-      <c r="I74" t="s">
-        <v>18</v>
-      </c>
-      <c r="J74" t="s">
-        <v>13</v>
-      </c>
-      <c r="K74" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>57</v>
-      </c>
-      <c r="B75" s="1">
-        <v>45955.627083333333</v>
-      </c>
-      <c r="C75" t="s">
-        <v>30</v>
-      </c>
-      <c r="D75">
-        <v>6</v>
-      </c>
-      <c r="E75" s="1">
-        <v>45955.629861111112</v>
-      </c>
-      <c r="F75" s="1">
-        <v>45955.636666666665</v>
-      </c>
-      <c r="G75">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="H75">
-        <v>3.1</v>
-      </c>
-      <c r="I75" t="s">
-        <v>12</v>
-      </c>
-      <c r="J75" t="s">
-        <v>13</v>
-      </c>
-      <c r="K75" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>58</v>
-      </c>
-      <c r="B76" s="1">
-        <v>45940.541666666664</v>
-      </c>
-      <c r="C76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76">
-        <v>4</v>
-      </c>
-      <c r="E76" s="1">
-        <v>45940.544444444444</v>
-      </c>
-      <c r="F76" s="1">
-        <v>45940.55840277778</v>
-      </c>
-      <c r="G76">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="H76">
-        <v>4.7</v>
-      </c>
-      <c r="I76" t="s">
-        <v>12</v>
-      </c>
-      <c r="J76" t="s">
-        <v>16</v>
-      </c>
-      <c r="K76" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B77" s="1">
-        <v>45948.854166666664</v>
-      </c>
-      <c r="C77" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77">
-        <v>4</v>
-      </c>
-      <c r="E77" s="1">
-        <v>45948.857638888891</v>
-      </c>
-      <c r="F77" s="1">
-        <v>45948.87027777778</v>
-      </c>
-      <c r="G77">
-        <v>18.2</v>
-      </c>
-      <c r="H77">
-        <v>4.7</v>
-      </c>
-      <c r="I77" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" t="s">
-        <v>13</v>
-      </c>
-      <c r="K77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>60</v>
-      </c>
-      <c r="B78" s="1">
-        <v>45943.82916666667</v>
-      </c>
-      <c r="C78" t="s">
-        <v>32</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78" s="1">
-        <v>45943.832638888889</v>
-      </c>
-      <c r="F78" s="1">
-        <v>45943.844861111109</v>
-      </c>
-      <c r="G78">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="H78">
-        <v>7.6</v>
-      </c>
-      <c r="I78" t="s">
-        <v>12</v>
-      </c>
-      <c r="J78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K78" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>61</v>
-      </c>
-      <c r="B79" s="1">
-        <v>45949.765277777777</v>
-      </c>
-      <c r="C79" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79">
-        <v>6</v>
-      </c>
-      <c r="E79" s="1">
-        <v>45949.767361111109</v>
-      </c>
-      <c r="F79" s="1">
-        <v>45949.786944444444</v>
-      </c>
-      <c r="G79">
-        <v>28.2</v>
-      </c>
-      <c r="H79">
-        <v>5.4</v>
-      </c>
-      <c r="I79" t="s">
-        <v>18</v>
-      </c>
-      <c r="J79" t="s">
-        <v>13</v>
-      </c>
-      <c r="K79" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>62</v>
-      </c>
-      <c r="B80" s="1">
-        <v>45953.620833333334</v>
-      </c>
-      <c r="C80" t="s">
-        <v>31</v>
-      </c>
-      <c r="D80">
-        <v>5</v>
-      </c>
-      <c r="E80" s="1">
-        <v>45953.62222222222</v>
-      </c>
-      <c r="F80" s="1">
-        <v>45953.646249999998</v>
-      </c>
-      <c r="G80">
-        <v>34.6</v>
-      </c>
-      <c r="H80">
-        <v>6.6</v>
-      </c>
-      <c r="I80" t="s">
-        <v>21</v>
-      </c>
-      <c r="J80" t="s">
-        <v>13</v>
-      </c>
-      <c r="K80" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>63</v>
-      </c>
-      <c r="B81" s="1">
-        <v>45938.852777777778</v>
-      </c>
-      <c r="C81" t="s">
-        <v>29</v>
-      </c>
-      <c r="D81">
-        <v>4</v>
-      </c>
-      <c r="E81" s="1">
-        <v>45938.855555555558</v>
-      </c>
-      <c r="F81" s="1">
-        <v>45938.872152777774</v>
-      </c>
-      <c r="G81">
-        <v>23.9</v>
-      </c>
-      <c r="H81">
-        <v>5.2</v>
-      </c>
-      <c r="I81" t="s">
-        <v>18</v>
-      </c>
-      <c r="J81" t="s">
-        <v>13</v>
-      </c>
-      <c r="K81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>64</v>
-      </c>
-      <c r="B82" s="1">
-        <v>45950.802777777775</v>
-      </c>
-      <c r="C82" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82">
-        <v>3</v>
-      </c>
-      <c r="E82" s="1">
-        <v>45950.805555555555</v>
-      </c>
-      <c r="F82" s="1">
-        <v>45950.843472222223</v>
-      </c>
-      <c r="G82">
-        <v>54.6</v>
-      </c>
-      <c r="H82">
-        <v>7.8</v>
-      </c>
-      <c r="I82" t="s">
-        <v>21</v>
-      </c>
-      <c r="J82" t="s">
-        <v>16</v>
-      </c>
-      <c r="K82" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>65</v>
-      </c>
-      <c r="B83" s="1">
-        <v>45952.419444444444</v>
-      </c>
-      <c r="D83">
-        <v>3</v>
-      </c>
-      <c r="H83">
-        <v>6</v>
-      </c>
-      <c r="I83" t="s">
-        <v>21</v>
-      </c>
-      <c r="J83" t="s">
-        <v>22</v>
-      </c>
-      <c r="K83" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>66</v>
-      </c>
-      <c r="B84" s="1">
-        <v>45949.513194444444</v>
-      </c>
-      <c r="C84" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84">
-        <v>5</v>
-      </c>
-      <c r="E84" s="1">
-        <v>45949.51666666667</v>
-      </c>
-      <c r="F84" s="1">
-        <v>45949.523611111108</v>
-      </c>
-      <c r="G84">
-        <v>10</v>
-      </c>
-      <c r="H84">
-        <v>3.3</v>
-      </c>
-      <c r="I84" t="s">
-        <v>12</v>
-      </c>
-      <c r="J84" t="s">
-        <v>13</v>
-      </c>
-      <c r="K84" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>67</v>
-      </c>
-      <c r="B85" s="1">
-        <v>45940.527083333334</v>
-      </c>
-      <c r="C85" t="s">
-        <v>26</v>
-      </c>
-      <c r="D85">
-        <v>4</v>
-      </c>
-      <c r="E85" s="1">
-        <v>45940.52847222222</v>
-      </c>
-      <c r="F85" s="1">
-        <v>45940.542083333334</v>
-      </c>
-      <c r="G85">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="H85">
-        <v>6</v>
-      </c>
-      <c r="I85" t="s">
-        <v>12</v>
-      </c>
-      <c r="J85" t="s">
-        <v>16</v>
-      </c>
-      <c r="K85" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>68</v>
-      </c>
-      <c r="B86" s="1">
-        <v>45943.831250000003</v>
-      </c>
-      <c r="C86" t="s">
-        <v>20</v>
-      </c>
-      <c r="D86">
-        <v>6</v>
-      </c>
-      <c r="E86" s="1">
-        <v>45943.834722222222</v>
-      </c>
-      <c r="F86" s="1">
-        <v>45943.849027777775</v>
-      </c>
-      <c r="G86">
-        <v>20.6</v>
-      </c>
-      <c r="H86">
-        <v>5.4</v>
-      </c>
-      <c r="I86" t="s">
-        <v>12</v>
-      </c>
-      <c r="J86" t="s">
-        <v>16</v>
-      </c>
-      <c r="K86" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>69</v>
-      </c>
-      <c r="B87" s="1">
-        <v>45949.841666666667</v>
-      </c>
-      <c r="C87" t="s">
-        <v>27</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87" s="1">
-        <v>45949.84375</v>
-      </c>
-      <c r="F87" s="1">
-        <v>45949.860833333332</v>
-      </c>
-      <c r="G87">
-        <v>24.6</v>
-      </c>
-      <c r="H87">
-        <v>7.8</v>
-      </c>
-      <c r="I87" t="s">
-        <v>12</v>
-      </c>
-      <c r="J87" t="s">
-        <v>13</v>
-      </c>
-      <c r="K87" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>70</v>
-      </c>
-      <c r="B88" s="1">
-        <v>45935.945833333331</v>
-      </c>
-      <c r="C88" t="s">
-        <v>20</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88" s="1">
-        <v>45935.948611111111</v>
-      </c>
-      <c r="F88" s="1">
-        <v>45935.978402777779</v>
-      </c>
-      <c r="G88">
-        <v>42.9</v>
-      </c>
-      <c r="H88">
-        <v>7.2</v>
-      </c>
-      <c r="I88" t="s">
-        <v>21</v>
-      </c>
-      <c r="J88" t="s">
-        <v>16</v>
-      </c>
-      <c r="K88" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>71</v>
-      </c>
-      <c r="B89" s="1">
-        <v>45954.843055555553</v>
-      </c>
-      <c r="C89" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89">
-        <v>5</v>
-      </c>
-      <c r="E89" s="1">
-        <v>45954.844444444447</v>
-      </c>
-      <c r="F89" s="1">
-        <v>45954.861319444448</v>
-      </c>
-      <c r="G89">
-        <v>24.3</v>
-      </c>
-      <c r="H89">
-        <v>6</v>
-      </c>
-      <c r="I89" t="s">
-        <v>18</v>
-      </c>
-      <c r="J89" t="s">
-        <v>13</v>
-      </c>
-      <c r="K89" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>72</v>
-      </c>
-      <c r="B90" s="1">
-        <v>45944.793055555558</v>
-      </c>
-      <c r="C90" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-      <c r="E90" s="1">
-        <v>45944.794444444444</v>
-      </c>
-      <c r="F90" s="1">
-        <v>45944.811736111114</v>
-      </c>
-      <c r="G90">
-        <v>24.9</v>
-      </c>
-      <c r="H90">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I90" t="s">
-        <v>12</v>
-      </c>
-      <c r="J90" t="s">
-        <v>13</v>
-      </c>
-      <c r="K90" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>73</v>
-      </c>
-      <c r="B91" s="1">
-        <v>45951.720138888886</v>
-      </c>
-      <c r="C91" t="s">
-        <v>30</v>
-      </c>
-      <c r="D91">
-        <v>3</v>
-      </c>
-      <c r="E91" s="1">
-        <v>45951.722222222219</v>
-      </c>
-      <c r="F91" s="1">
-        <v>45951.735208333332</v>
-      </c>
-      <c r="G91">
-        <v>18.7</v>
-      </c>
-      <c r="H91">
-        <v>3.1</v>
-      </c>
-      <c r="I91" t="s">
-        <v>21</v>
-      </c>
-      <c r="J91" t="s">
-        <v>13</v>
-      </c>
-      <c r="K91" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>74</v>
-      </c>
-      <c r="B92" s="1">
-        <v>45949.881249999999</v>
-      </c>
-      <c r="C92" t="s">
-        <v>26</v>
-      </c>
-      <c r="D92">
-        <v>5</v>
-      </c>
-      <c r="E92" s="1">
-        <v>45949.884027777778</v>
-      </c>
-      <c r="F92" s="1">
-        <v>45949.906875000001</v>
-      </c>
-      <c r="G92">
-        <v>32.9</v>
-      </c>
-      <c r="H92">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I92" t="s">
-        <v>21</v>
-      </c>
-      <c r="J92" t="s">
-        <v>13</v>
-      </c>
-      <c r="K92" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>75</v>
-      </c>
-      <c r="B93" s="1">
-        <v>45946.821527777778</v>
-      </c>
-      <c r="C93" t="s">
-        <v>24</v>
-      </c>
-      <c r="D93">
-        <v>3</v>
-      </c>
-      <c r="E93" s="1">
-        <v>45946.822222222225</v>
-      </c>
-      <c r="F93" s="1">
-        <v>45946.848194444443</v>
-      </c>
-      <c r="G93">
-        <v>37.4</v>
-      </c>
-      <c r="H93">
-        <v>5.7</v>
-      </c>
-      <c r="I93" t="s">
-        <v>21</v>
-      </c>
-      <c r="J93" t="s">
-        <v>16</v>
-      </c>
-      <c r="K93" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>76</v>
-      </c>
-      <c r="B94" s="1">
-        <v>45954.50277777778</v>
-      </c>
-      <c r="C94" t="s">
-        <v>20</v>
-      </c>
-      <c r="D94">
-        <v>3</v>
-      </c>
-      <c r="E94" s="1">
-        <v>45954.503472222219</v>
-      </c>
-      <c r="F94" s="1">
-        <v>45954.510555555556</v>
-      </c>
-      <c r="G94">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="H94">
-        <v>3.4</v>
-      </c>
-      <c r="I94" t="s">
-        <v>12</v>
-      </c>
-      <c r="J94" t="s">
-        <v>13</v>
-      </c>
-      <c r="K94" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>77</v>
-      </c>
-      <c r="B95" s="1">
-        <v>45942.838888888888</v>
-      </c>
-      <c r="C95" t="s">
-        <v>26</v>
-      </c>
-      <c r="D95">
-        <v>3</v>
-      </c>
-      <c r="E95" s="1">
-        <v>45942.842361111114</v>
-      </c>
-      <c r="F95" s="1">
-        <v>45942.856319444443</v>
-      </c>
-      <c r="G95">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="H95">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I95" t="s">
-        <v>18</v>
-      </c>
-      <c r="J95" t="s">
-        <v>13</v>
-      </c>
-      <c r="K95" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>78</v>
-      </c>
-      <c r="B96" s="1">
-        <v>45948.786805555559</v>
-      </c>
-      <c r="C96" t="s">
-        <v>32</v>
-      </c>
-      <c r="D96">
-        <v>3</v>
-      </c>
-      <c r="E96" s="1">
-        <v>45948.788194444445</v>
-      </c>
-      <c r="F96" s="1">
-        <v>45948.791319444441</v>
-      </c>
-      <c r="G96">
-        <v>4.5</v>
-      </c>
-      <c r="H96">
-        <v>1.3</v>
-      </c>
-      <c r="I96" t="s">
-        <v>12</v>
-      </c>
-      <c r="J96" t="s">
-        <v>13</v>
-      </c>
-      <c r="K96" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>79</v>
-      </c>
-      <c r="B97" s="1">
-        <v>45952.861805555556</v>
-      </c>
-      <c r="C97" t="s">
-        <v>24</v>
-      </c>
-      <c r="D97">
-        <v>5</v>
-      </c>
-      <c r="E97" s="1">
-        <v>45952.864583333336</v>
-      </c>
-      <c r="F97" s="1">
-        <v>45952.86791666667</v>
-      </c>
-      <c r="G97">
-        <v>4.8</v>
-      </c>
-      <c r="H97">
-        <v>1.5</v>
-      </c>
-      <c r="I97" t="s">
-        <v>12</v>
-      </c>
-      <c r="J97" t="s">
-        <v>22</v>
-      </c>
-      <c r="K97" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>81</v>
-      </c>
-      <c r="B98" s="1">
-        <v>45936.802083333336</v>
-      </c>
-      <c r="C98" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98">
-        <v>7</v>
-      </c>
-      <c r="E98" s="1">
-        <v>45936.803472222222</v>
-      </c>
-      <c r="F98" s="1">
-        <v>45936.808055555557</v>
-      </c>
-      <c r="G98">
-        <v>6.6</v>
-      </c>
-      <c r="H98">
-        <v>1.5</v>
-      </c>
-      <c r="I98" t="s">
-        <v>18</v>
-      </c>
-      <c r="J98" t="s">
-        <v>13</v>
-      </c>
-      <c r="K98" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>82</v>
-      </c>
-      <c r="B99" s="1">
-        <v>45954.412499999999</v>
-      </c>
-      <c r="C99" t="s">
-        <v>23</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99" s="1">
-        <v>45954.413194444445</v>
-      </c>
-      <c r="F99" s="1">
-        <v>45954.437638888892</v>
-      </c>
-      <c r="G99">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="H99">
-        <v>8.9</v>
-      </c>
-      <c r="I99" t="s">
-        <v>18</v>
-      </c>
-      <c r="J99" t="s">
-        <v>16</v>
-      </c>
-      <c r="K99" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>83</v>
-      </c>
-      <c r="B100" s="1">
-        <v>45946.802083333336</v>
-      </c>
-      <c r="C100" t="s">
-        <v>32</v>
-      </c>
-      <c r="D100">
-        <v>4</v>
-      </c>
-      <c r="E100" s="1">
-        <v>45946.802777777775</v>
-      </c>
-      <c r="F100" s="1">
-        <v>45946.806805555556</v>
-      </c>
-      <c r="G100">
-        <v>5.8</v>
-      </c>
-      <c r="H100">
-        <v>1.4</v>
-      </c>
-      <c r="I100" t="s">
-        <v>18</v>
-      </c>
-      <c r="J100" t="s">
-        <v>13</v>
-      </c>
-      <c r="K100" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>84</v>
-      </c>
-      <c r="B101" s="1">
-        <v>45949.73541666667</v>
-      </c>
-      <c r="C101" t="s">
-        <v>25</v>
-      </c>
-      <c r="D101">
-        <v>4</v>
-      </c>
-      <c r="E101" s="1">
-        <v>45949.737500000003</v>
-      </c>
-      <c r="F101" s="1">
-        <v>45949.762361111112</v>
-      </c>
-      <c r="G101">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="H101">
-        <v>6.8</v>
-      </c>
-      <c r="I101" t="s">
-        <v>21</v>
-      </c>
-      <c r="J101" t="s">
-        <v>13</v>
-      </c>
-      <c r="K101" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>85</v>
-      </c>
-      <c r="B102" s="1">
-        <v>45950.852083333331</v>
-      </c>
-      <c r="C102" t="s">
-        <v>31</v>
-      </c>
-      <c r="D102">
-        <v>4</v>
-      </c>
-      <c r="E102" s="1">
-        <v>45950.852777777778</v>
-      </c>
-      <c r="F102" s="1">
-        <v>45950.855763888889</v>
-      </c>
-      <c r="G102">
-        <v>4.3</v>
-      </c>
-      <c r="H102">
-        <v>1.6</v>
-      </c>
-      <c r="I102" t="s">
-        <v>12</v>
-      </c>
-      <c r="J102" t="s">
-        <v>13</v>
-      </c>
-      <c r="K102" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>86</v>
-      </c>
-      <c r="B103" s="1">
-        <v>45947.939583333333</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>3.4</v>
-      </c>
-      <c r="I103" t="s">
-        <v>18</v>
-      </c>
-      <c r="J103" t="s">
-        <v>13</v>
-      </c>
-      <c r="K103" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>87</v>
-      </c>
-      <c r="B104" s="1">
-        <v>45948.676388888889</v>
-      </c>
-      <c r="C104" t="s">
-        <v>26</v>
-      </c>
-      <c r="D104">
-        <v>2</v>
-      </c>
-      <c r="E104" s="1">
-        <v>45948.678472222222</v>
-      </c>
-      <c r="F104" s="1">
-        <v>45948.686041666668</v>
-      </c>
-      <c r="G104">
-        <v>10.9</v>
-      </c>
-      <c r="H104">
-        <v>4.3</v>
-      </c>
-      <c r="I104" t="s">
-        <v>12</v>
-      </c>
-      <c r="J104" t="s">
-        <v>13</v>
-      </c>
-      <c r="K104" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>88</v>
-      </c>
-      <c r="B105" s="1">
-        <v>45937.461805555555</v>
-      </c>
-      <c r="C105" t="s">
-        <v>29</v>
-      </c>
-      <c r="D105">
-        <v>6</v>
-      </c>
-      <c r="E105" s="1">
-        <v>45937.463194444441</v>
-      </c>
-      <c r="F105" s="1">
-        <v>45937.475555555553</v>
-      </c>
-      <c r="G105">
-        <v>17.8</v>
-      </c>
-      <c r="H105">
-        <v>4.5</v>
-      </c>
-      <c r="I105" t="s">
-        <v>18</v>
-      </c>
-      <c r="J105" t="s">
-        <v>13</v>
-      </c>
-      <c r="K105" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>89</v>
-      </c>
-      <c r="B106" s="1">
-        <v>45956.515277777777</v>
-      </c>
-      <c r="C106" t="s">
-        <v>27</v>
-      </c>
-      <c r="D106">
-        <v>7</v>
-      </c>
-      <c r="E106" s="1">
-        <v>45956.518750000003</v>
-      </c>
-      <c r="F106" s="1">
-        <v>45956.543124999997</v>
-      </c>
-      <c r="G106">
-        <v>35.1</v>
-      </c>
-      <c r="H106">
-        <v>7.9</v>
-      </c>
-      <c r="I106" t="s">
-        <v>18</v>
-      </c>
-      <c r="J106" t="s">
-        <v>22</v>
-      </c>
-      <c r="K106" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>90</v>
-      </c>
-      <c r="B107" s="1">
-        <v>45939.801388888889</v>
-      </c>
-      <c r="C107" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107">
-        <v>2</v>
-      </c>
-      <c r="E107" s="1">
-        <v>45939.803472222222</v>
-      </c>
-      <c r="F107" s="1">
-        <v>45939.813472222224</v>
-      </c>
-      <c r="G107">
-        <v>14.4</v>
-      </c>
-      <c r="H107">
-        <v>3.8</v>
-      </c>
-      <c r="I107" t="s">
-        <v>18</v>
-      </c>
-      <c r="J107" t="s">
-        <v>13</v>
-      </c>
-      <c r="K107" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>91</v>
-      </c>
-      <c r="B108" s="1">
-        <v>45954.870138888888</v>
-      </c>
-      <c r="C108" t="s">
-        <v>32</v>
-      </c>
-      <c r="D108">
-        <v>4</v>
-      </c>
-      <c r="E108" s="1">
-        <v>45954.870833333334</v>
-      </c>
-      <c r="F108" s="1">
-        <v>45954.883263888885</v>
-      </c>
-      <c r="G108">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="H108">
-        <v>6.6</v>
-      </c>
-      <c r="I108" t="s">
-        <v>12</v>
-      </c>
-      <c r="J108" t="s">
-        <v>13</v>
-      </c>
-      <c r="K108" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>92</v>
-      </c>
-      <c r="B109" s="1">
-        <v>45937.527777777781</v>
-      </c>
-      <c r="C109" t="s">
-        <v>29</v>
-      </c>
-      <c r="D109">
-        <v>4</v>
-      </c>
-      <c r="E109" s="1">
-        <v>45937.530555555553</v>
-      </c>
-      <c r="F109" s="1">
-        <v>45937.535208333335</v>
-      </c>
-      <c r="G109">
-        <v>6.7</v>
-      </c>
-      <c r="H109">
-        <v>1.7</v>
-      </c>
-      <c r="I109" t="s">
-        <v>18</v>
-      </c>
-      <c r="J109" t="s">
-        <v>13</v>
-      </c>
-      <c r="K109" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>93</v>
-      </c>
-      <c r="B110" s="1">
-        <v>45953.788888888892</v>
-      </c>
-      <c r="C110" t="s">
-        <v>28</v>
-      </c>
-      <c r="D110">
-        <v>5</v>
-      </c>
-      <c r="E110" s="1">
-        <v>45953.791666666664</v>
-      </c>
-      <c r="F110" s="1">
-        <v>45953.795486111114</v>
-      </c>
-      <c r="G110">
-        <v>5.5</v>
-      </c>
-      <c r="H110">
-        <v>1.4</v>
-      </c>
-      <c r="I110" t="s">
-        <v>12</v>
-      </c>
-      <c r="J110" t="s">
-        <v>13</v>
-      </c>
-      <c r="K110" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>94</v>
-      </c>
-      <c r="B111" s="1">
-        <v>45941.796527777777</v>
-      </c>
-      <c r="C111" t="s">
-        <v>24</v>
-      </c>
-      <c r="D111">
-        <v>5</v>
-      </c>
-      <c r="E111" s="1">
-        <v>45941.799305555556</v>
-      </c>
-      <c r="F111" s="1">
-        <v>45941.809583333335</v>
-      </c>
-      <c r="G111">
-        <v>14.8</v>
-      </c>
-      <c r="H111">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I111" t="s">
-        <v>12</v>
-      </c>
-      <c r="J111" t="s">
-        <v>13</v>
-      </c>
-      <c r="K111" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>95</v>
-      </c>
-      <c r="B112" s="1">
-        <v>45947.918749999997</v>
-      </c>
-      <c r="C112" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112">
-        <v>2</v>
-      </c>
-      <c r="E112" s="1">
-        <v>45947.919444444444</v>
-      </c>
-      <c r="F112" s="1">
-        <v>45947.935416666667</v>
-      </c>
-      <c r="G112">
-        <v>23</v>
-      </c>
-      <c r="H112">
-        <v>7.1</v>
-      </c>
-      <c r="I112" t="s">
-        <v>18</v>
-      </c>
-      <c r="J112" t="s">
-        <v>13</v>
-      </c>
-      <c r="K112" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>96</v>
-      </c>
-      <c r="B113" s="1">
-        <v>45939.614583333336</v>
-      </c>
-      <c r="C113" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113">
-        <v>5</v>
-      </c>
-      <c r="E113" s="1">
-        <v>45939.615277777775</v>
-      </c>
-      <c r="F113" s="1">
-        <v>45939.634027777778</v>
-      </c>
-      <c r="G113">
-        <v>27</v>
-      </c>
-      <c r="H113">
-        <v>5</v>
-      </c>
-      <c r="I113" t="s">
-        <v>21</v>
-      </c>
-      <c r="J113" t="s">
-        <v>16</v>
-      </c>
-      <c r="K113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
+      <c r="K117" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
@@ -5281,6 +5321,8 @@
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
@@ -5299,8 +5341,6 @@
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
@@ -5369,6 +5409,8 @@
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
@@ -5387,8 +5429,6 @@
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
@@ -5567,6 +5607,8 @@
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B206" s="1"/>
@@ -5585,8 +5627,6 @@
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210" s="1"/>
@@ -5650,6 +5690,8 @@
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B223" s="1"/>
@@ -5668,8 +5710,6 @@
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B226" s="1"/>
-      <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B227" s="1"/>
@@ -5848,6 +5888,8 @@
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B263" s="1"/>
@@ -5866,8 +5908,6 @@
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B266" s="1"/>
-      <c r="E266" s="1"/>
-      <c r="F266" s="1"/>
     </row>
     <row r="267" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B267" s="1"/>
@@ -5906,6 +5946,8 @@
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
     </row>
     <row r="275" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B275" s="1"/>
@@ -5924,8 +5966,6 @@
     </row>
     <row r="278" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B278" s="1"/>
-      <c r="E278" s="1"/>
-      <c r="F278" s="1"/>
     </row>
     <row r="279" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B279" s="1"/>
@@ -6154,6 +6194,8 @@
     </row>
     <row r="324" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B324" s="1"/>
+      <c r="E324" s="1"/>
+      <c r="F324" s="1"/>
     </row>
     <row r="325" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B325" s="1"/>
@@ -6172,8 +6214,6 @@
     </row>
     <row r="328" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B328" s="1"/>
-      <c r="E328" s="1"/>
-      <c r="F328" s="1"/>
     </row>
     <row r="329" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B329" s="1"/>
@@ -6282,6 +6322,8 @@
     </row>
     <row r="350" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B350" s="1"/>
+      <c r="E350" s="1"/>
+      <c r="F350" s="1"/>
     </row>
     <row r="351" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B351" s="1"/>
@@ -6300,8 +6342,6 @@
     </row>
     <row r="354" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B354" s="1"/>
-      <c r="E354" s="1"/>
-      <c r="F354" s="1"/>
     </row>
     <row r="355" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B355" s="1"/>
@@ -6590,6 +6630,8 @@
     </row>
     <row r="412" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B412" s="1"/>
+      <c r="E412" s="1"/>
+      <c r="F412" s="1"/>
     </row>
     <row r="413" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B413" s="1"/>
@@ -6608,8 +6650,6 @@
     </row>
     <row r="416" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B416" s="1"/>
-      <c r="E416" s="1"/>
-      <c r="F416" s="1"/>
     </row>
     <row r="417" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B417" s="1"/>
@@ -7063,11 +7103,31 @@
     </row>
     <row r="507" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B507" s="1"/>
+      <c r="E507" s="1"/>
+      <c r="F507" s="1"/>
     </row>
     <row r="508" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B508" s="1"/>
       <c r="E508" s="1"/>
       <c r="F508" s="1"/>
+    </row>
+    <row r="509" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B509" s="1"/>
+      <c r="E509" s="1"/>
+      <c r="F509" s="1"/>
+    </row>
+    <row r="510" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B510" s="1"/>
+      <c r="E510" s="1"/>
+      <c r="F510" s="1"/>
+    </row>
+    <row r="511" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B511" s="1"/>
+    </row>
+    <row r="512" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B512" s="1"/>
+      <c r="E512" s="1"/>
+      <c r="F512" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/pizza_delivery_data_set.xlsx
+++ b/pizza_delivery_data_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OUSL\Level 06\EEX5362 Performance Modelling\MiniProject\Data_Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D2CF50-464E-4A1B-8FB9-9601C40CF8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C0A359-229E-4DD0-92EA-D78E17346C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CD4E57AB-491E-4249-9CEB-CFF614D4161E}"/>
   </bookViews>
@@ -1351,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEBB392-C697-4F51-BDA2-5659AA5842EC}">
   <dimension ref="A1:Q512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1435,10 +1435,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="5">
-        <v>45935.75277777778</v>
+        <v>45935.763194444444</v>
       </c>
       <c r="F3" s="5">
-        <v>45935.758333333331</v>
+        <v>45935.768750000003</v>
       </c>
       <c r="G3" s="4">
         <v>7.9</v>
@@ -1470,10 +1470,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="5">
-        <v>45935.761805555558</v>
+        <v>45935.772222222222</v>
       </c>
       <c r="F4" s="5">
-        <v>45935.791666666664</v>
+        <v>45935.802083333336</v>
       </c>
       <c r="G4" s="4">
         <v>43</v>
@@ -1505,10 +1505,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>45935.763888888891</v>
+        <v>45935.774305555555</v>
       </c>
       <c r="F5" s="5">
-        <v>45935.777777777781</v>
+        <v>45935.788194444445</v>
       </c>
       <c r="G5" s="4">
         <v>19.7</v>
@@ -1540,10 +1540,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="5">
-        <v>45935.768750000003</v>
+        <v>45935.779166666667</v>
       </c>
       <c r="F6" s="5">
-        <v>45935.780555555553</v>
+        <v>45935.790972222225</v>
       </c>
       <c r="G6" s="4">
         <v>17.7</v>
@@ -1575,10 +1575,10 @@
         <v>6</v>
       </c>
       <c r="E7" s="5">
-        <v>45935.77847222222</v>
+        <v>45935.788888888892</v>
       </c>
       <c r="F7" s="5">
-        <v>45935.804861111108</v>
+        <v>45935.81527777778</v>
       </c>
       <c r="G7" s="4">
         <v>38.200000000000003</v>
@@ -1610,10 +1610,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="5">
-        <v>45935.783449074072</v>
+        <v>45935.793865740743</v>
       </c>
       <c r="F8" s="5">
-        <v>45935.794444444444</v>
+        <v>45935.804861111108</v>
       </c>
       <c r="G8" s="4">
         <v>16.100000000000001</v>
@@ -1645,10 +1645,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="5">
-        <v>45935.786805555559</v>
+        <v>45935.797222222223</v>
       </c>
       <c r="F9" s="5">
-        <v>45935.799305555556</v>
+        <v>45935.80972222222</v>
       </c>
       <c r="G9" s="4">
         <v>18.3</v>
@@ -1685,10 +1685,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="5">
-        <v>45937.750694444447</v>
+        <v>45937.775000000001</v>
       </c>
       <c r="F11" s="5">
-        <v>45937.76458333333</v>
+        <v>45937.788888888892</v>
       </c>
       <c r="G11" s="4">
         <v>20.399999999999999</v>
@@ -1720,13 +1720,13 @@
         <v>6</v>
       </c>
       <c r="E12" s="5">
-        <v>45937.754861111112</v>
+        <v>45937.775694444441</v>
       </c>
       <c r="F12" s="5">
-        <v>45937.768750000003</v>
+        <v>45937.782638888886</v>
       </c>
       <c r="G12" s="4">
-        <v>20.399999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="H12" s="4">
         <v>2.8</v>
@@ -1755,10 +1755,10 @@
         <v>3</v>
       </c>
       <c r="E13" s="5">
-        <v>45937.756944444445</v>
+        <v>45937.777083333334</v>
       </c>
       <c r="F13" s="5">
-        <v>45937.76666666667</v>
+        <v>45937.786805555559</v>
       </c>
       <c r="G13" s="4">
         <v>14.2</v>
@@ -1790,10 +1790,10 @@
         <v>5</v>
       </c>
       <c r="E14" s="5">
-        <v>45937.757638888892</v>
+        <v>45937.777083333334</v>
       </c>
       <c r="F14" s="5">
-        <v>45937.777777777781</v>
+        <v>45937.789583333331</v>
       </c>
       <c r="G14" s="4">
         <v>28.7</v>
@@ -1825,10 +1825,10 @@
         <v>5</v>
       </c>
       <c r="E15" s="5">
-        <v>45937.763888888891</v>
+        <v>45937.77847222222</v>
       </c>
       <c r="F15" s="5">
-        <v>45937.781944444447</v>
+        <v>45937.796527777777</v>
       </c>
       <c r="G15" s="4">
         <v>26.6</v>
@@ -1860,10 +1860,10 @@
         <v>4</v>
       </c>
       <c r="E16" s="5">
-        <v>45937.771527777775</v>
+        <v>45937.780555555553</v>
       </c>
       <c r="F16" s="5">
-        <v>45937.789583333331</v>
+        <v>45937.798611111109</v>
       </c>
       <c r="G16" s="4">
         <v>26.1</v>
@@ -1895,10 +1895,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="5">
-        <v>45937.775694444441</v>
+        <v>45937.78125</v>
       </c>
       <c r="F17" s="5">
-        <v>45937.786111111112</v>
+        <v>45937.791666666664</v>
       </c>
       <c r="G17" s="4">
         <v>14.9</v>
@@ -1930,10 +1930,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="5">
-        <v>45937.784722222219</v>
+        <v>45937.78125</v>
       </c>
       <c r="F18" s="5">
-        <v>45937.813888888886</v>
+        <v>45937.810416666667</v>
       </c>
       <c r="G18" s="4">
         <v>42.1</v>
@@ -1965,10 +1965,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="5">
-        <v>45937.789583333331</v>
+        <v>45937.78125</v>
       </c>
       <c r="F19" s="5">
-        <v>45937.792361111111</v>
+        <v>45937.783333333333</v>
       </c>
       <c r="G19" s="4">
         <v>3.1</v>
@@ -2013,10 +2013,10 @@
         <v>5</v>
       </c>
       <c r="E21" s="5">
-        <v>45939.758333333331</v>
+        <v>45939.782638888886</v>
       </c>
       <c r="F21" s="5">
-        <v>45939.76458333333</v>
+        <v>45939.788888888892</v>
       </c>
       <c r="G21" s="4">
         <v>8.6</v>
@@ -2048,10 +2048,10 @@
         <v>4</v>
       </c>
       <c r="E22" s="5">
-        <v>45939.765972222223</v>
+        <v>45939.782638888886</v>
       </c>
       <c r="F22" s="5">
-        <v>45939.795138888891</v>
+        <v>45939.8125</v>
       </c>
       <c r="G22" s="4">
         <v>42.9</v>
@@ -2083,10 +2083,10 @@
         <v>4</v>
       </c>
       <c r="E23" s="5">
-        <v>45939.775694444441</v>
+        <v>45939.78402777778</v>
       </c>
       <c r="F23" s="5">
-        <v>45939.783333333333</v>
+        <v>45939.791666666664</v>
       </c>
       <c r="G23" s="4">
         <v>11.4</v>
@@ -2118,10 +2118,10 @@
         <v>6</v>
       </c>
       <c r="E24" s="5">
-        <v>45939.779166666667</v>
+        <v>45939.786111111112</v>
       </c>
       <c r="F24" s="5">
-        <v>45939.783333333333</v>
+        <v>45939.790277777778</v>
       </c>
       <c r="G24" s="4">
         <v>5.7</v>
@@ -2179,7 +2179,7 @@
         <v>55</v>
       </c>
       <c r="B26" s="5">
-        <v>45939.777280092596</v>
+        <v>45939.777974537035</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>17</v>
@@ -2191,7 +2191,7 @@
         <v>45939.790972222225</v>
       </c>
       <c r="F26" s="5">
-        <v>45939.809027777781</v>
+        <v>45939.808333333334</v>
       </c>
       <c r="G26" s="4">
         <v>24.8</v>
@@ -2227,7 +2227,7 @@
         <v>56</v>
       </c>
       <c r="B28" s="5">
-        <v>45941.777604166666</v>
+        <v>45941.763715277775</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>25</v>
@@ -2236,10 +2236,10 @@
         <v>6</v>
       </c>
       <c r="E28" s="5">
-        <v>45941.754861111112</v>
+        <v>45941.773611111108</v>
       </c>
       <c r="F28" s="5">
-        <v>45941.756944444445</v>
+        <v>45941.775694444441</v>
       </c>
       <c r="G28" s="4">
         <v>3</v>
@@ -2271,10 +2271,10 @@
         <v>6</v>
       </c>
       <c r="E29" s="5">
-        <v>45941.757638888892</v>
+        <v>45941.787499999999</v>
       </c>
       <c r="F29" s="5">
-        <v>45941.76666666667</v>
+        <v>45941.797222222223</v>
       </c>
       <c r="G29" s="4">
         <v>13.7</v>
@@ -2306,10 +2306,10 @@
         <v>5</v>
       </c>
       <c r="E30" s="5">
-        <v>45941.763888888891</v>
+        <v>45941.789583333331</v>
       </c>
       <c r="F30" s="5">
-        <v>45941.785416666666</v>
+        <v>45941.811111111114</v>
       </c>
       <c r="G30" s="4">
         <v>31.1</v>
@@ -2341,10 +2341,10 @@
         <v>5</v>
       </c>
       <c r="E31" s="5">
-        <v>45941.768750000003</v>
+        <v>45941.790277777778</v>
       </c>
       <c r="F31" s="5">
-        <v>45941.777777777781</v>
+        <v>45941.798611111109</v>
       </c>
       <c r="G31" s="4">
         <v>12.5</v>
@@ -2376,10 +2376,10 @@
         <v>3</v>
       </c>
       <c r="E32" s="5">
-        <v>45941.772222222222</v>
+        <v>45941.790972222225</v>
       </c>
       <c r="F32" s="5">
-        <v>45941.788194444445</v>
+        <v>45941.806944444441</v>
       </c>
       <c r="G32" s="4">
         <v>22.7</v>
@@ -2411,10 +2411,10 @@
         <v>7</v>
       </c>
       <c r="E33" s="5">
-        <v>45941.776388888888</v>
+        <v>45941.792361111111</v>
       </c>
       <c r="F33" s="5">
-        <v>45941.779861111114</v>
+        <v>45941.79583333333</v>
       </c>
       <c r="G33" s="4">
         <v>5.2</v>
@@ -2437,7 +2437,7 @@
         <v>62</v>
       </c>
       <c r="B34" s="5">
-        <v>45941.780555555553</v>
+        <v>45941.781944444447</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>25</v>
@@ -2446,10 +2446,10 @@
         <v>4</v>
       </c>
       <c r="E34" s="5">
-        <v>45941.780555555553</v>
+        <v>45941.795138888891</v>
       </c>
       <c r="F34" s="5">
-        <v>45941.8</v>
+        <v>45941.813888888886</v>
       </c>
       <c r="G34" s="4">
         <v>27.8</v>
@@ -2481,10 +2481,10 @@
         <v>7</v>
       </c>
       <c r="E35" s="5">
-        <v>45941.784722222219</v>
+        <v>45941.79583333333</v>
       </c>
       <c r="F35" s="5">
-        <v>45941.796527777777</v>
+        <v>45941.808333333334</v>
       </c>
       <c r="G35" s="4">
         <v>17.3</v>
@@ -2507,7 +2507,7 @@
         <v>64</v>
       </c>
       <c r="B36" s="5">
-        <v>45941.77138888889</v>
+        <v>45941.786666666667</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>17</v>
@@ -2516,10 +2516,10 @@
         <v>5</v>
       </c>
       <c r="E36" s="5">
-        <v>45941.786111111112</v>
+        <v>45941.798611111109</v>
       </c>
       <c r="F36" s="5">
-        <v>45941.789583333331</v>
+        <v>45941.802083333336</v>
       </c>
       <c r="G36" s="4">
         <v>4.9000000000000004</v>
@@ -2542,7 +2542,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="5">
-        <v>45941.771527777775</v>
+        <v>45941.790972222225</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>17</v>
@@ -2551,10 +2551,10 @@
         <v>4</v>
       </c>
       <c r="E37" s="5">
-        <v>45941.789583333331</v>
+        <v>45941.801388888889</v>
       </c>
       <c r="F37" s="5">
-        <v>45941.799305555556</v>
+        <v>45941.810416666667</v>
       </c>
       <c r="G37" s="4">
         <v>13.6</v>
@@ -2590,7 +2590,7 @@
         <v>66</v>
       </c>
       <c r="B39" s="5">
-        <v>45942.786111111112</v>
+        <v>45942.751388888886</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>11</v>
@@ -2599,10 +2599,10 @@
         <v>2</v>
       </c>
       <c r="E39" s="5">
-        <v>45942.751388888886</v>
+        <v>45942.761805555558</v>
       </c>
       <c r="F39" s="5">
-        <v>45942.765972222223</v>
+        <v>45942.776388888888</v>
       </c>
       <c r="G39" s="4">
         <v>21.3</v>
@@ -2625,7 +2625,7 @@
         <v>67</v>
       </c>
       <c r="B40" s="5">
-        <v>45942.787499999999</v>
+        <v>45942.756249999999</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>11</v>
@@ -2634,10 +2634,10 @@
         <v>5</v>
       </c>
       <c r="E40" s="5">
-        <v>45942.757638888892</v>
+        <v>45942.76666666667</v>
       </c>
       <c r="F40" s="5">
-        <v>45942.763888888891</v>
+        <v>45942.772916666669</v>
       </c>
       <c r="G40" s="4">
         <v>8.6999999999999993</v>
@@ -2660,7 +2660,7 @@
         <v>68</v>
       </c>
       <c r="B41" s="5">
-        <v>45942.789583333331</v>
+        <v>45942.760416666664</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>17</v>
@@ -2669,10 +2669,10 @@
         <v>6</v>
       </c>
       <c r="E41" s="5">
-        <v>45942.761111111111</v>
+        <v>45942.770833333336</v>
       </c>
       <c r="F41" s="5">
-        <v>45942.772222222222</v>
+        <v>45942.781944444447</v>
       </c>
       <c r="G41" s="4">
         <v>16.100000000000001</v>
@@ -2695,7 +2695,7 @@
         <v>69</v>
       </c>
       <c r="B42" s="5">
-        <v>45942.786111111112</v>
+        <v>45942.763888888891</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>25</v>
@@ -2704,10 +2704,10 @@
         <v>6</v>
       </c>
       <c r="E42" s="5">
-        <v>45942.763888888891</v>
+        <v>45942.774305555555</v>
       </c>
       <c r="F42" s="5">
-        <v>45942.788194444445</v>
+        <v>45942.799305555556</v>
       </c>
       <c r="G42" s="4">
         <v>35.5</v>
@@ -2730,7 +2730,7 @@
         <v>70</v>
       </c>
       <c r="B43" s="5">
-        <v>45942.786111111112</v>
+        <v>45942.772222222222</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>32</v>
@@ -2739,10 +2739,10 @@
         <v>4</v>
       </c>
       <c r="E43" s="5">
-        <v>45942.772222222222</v>
+        <v>45942.782638888886</v>
       </c>
       <c r="F43" s="5">
-        <v>45942.790277777778</v>
+        <v>45942.800694444442</v>
       </c>
       <c r="G43" s="4">
         <v>26</v>
@@ -2765,7 +2765,7 @@
         <v>71</v>
       </c>
       <c r="B44" s="5">
-        <v>45942.786111111112</v>
+        <v>45942.780555555553</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>17</v>
@@ -2774,10 +2774,10 @@
         <v>5</v>
       </c>
       <c r="E44" s="5">
-        <v>45942.777777777781</v>
+        <v>45942.790972222225</v>
       </c>
       <c r="F44" s="5">
-        <v>45942.783333333333</v>
+        <v>45942.796527777777</v>
       </c>
       <c r="G44" s="4">
         <v>8.3000000000000007</v>
@@ -2800,7 +2800,7 @@
         <v>72</v>
       </c>
       <c r="B45" s="5">
-        <v>45942.786111111112</v>
+        <v>45942.784722222219</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>23</v>
@@ -2809,10 +2809,10 @@
         <v>3</v>
       </c>
       <c r="E45" s="5">
-        <v>45942.784722222219</v>
+        <v>45942.795138888891</v>
       </c>
       <c r="F45" s="5">
-        <v>45942.798611111109</v>
+        <v>45942.804166666669</v>
       </c>
       <c r="G45" s="4">
         <v>20.7</v>
@@ -2844,10 +2844,10 @@
         <v>5</v>
       </c>
       <c r="E46" s="5">
-        <v>45942.788888888892</v>
+        <v>45942.796527777777</v>
       </c>
       <c r="F46" s="5">
-        <v>45942.797222222223</v>
+        <v>45942.805555555555</v>
       </c>
       <c r="G46" s="4">
         <v>12.4</v>
@@ -2870,7 +2870,7 @@
         <v>74</v>
       </c>
       <c r="B47" s="5">
-        <v>45942.786111111112</v>
+        <v>45942.786805555559</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>32</v>
@@ -2879,10 +2879,10 @@
         <v>4</v>
       </c>
       <c r="E47" s="5">
-        <v>45942.790972222225</v>
+        <v>45942.797222222223</v>
       </c>
       <c r="F47" s="5">
-        <v>45942.807638888888</v>
+        <v>45942.813194444447</v>
       </c>
       <c r="G47" s="4">
         <v>23.8</v>
@@ -2963,7 +2963,7 @@
         <v>77</v>
       </c>
       <c r="B51" s="5">
-        <v>45935.75277777778</v>
+        <v>45935.755555555559</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>24</v>
@@ -2972,10 +2972,10 @@
         <v>3</v>
       </c>
       <c r="E51" s="5">
-        <v>45935.75277777778</v>
+        <v>45935.765972222223</v>
       </c>
       <c r="F51" s="5">
-        <v>45940.442916666667</v>
+        <v>45935.772916666669</v>
       </c>
       <c r="G51" s="4">
         <v>9.8000000000000007</v>
@@ -2998,7 +2998,7 @@
         <v>78</v>
       </c>
       <c r="B52" s="5">
-        <v>45935.761805555558</v>
+        <v>45935.757638888892</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>24</v>
@@ -3007,10 +3007,10 @@
         <v>6</v>
       </c>
       <c r="E52" s="5">
-        <v>45935.761805555558</v>
+        <v>45935.768055555556</v>
       </c>
       <c r="F52" s="5">
-        <v>45943.864027777781</v>
+        <v>45935.777083333334</v>
       </c>
       <c r="G52" s="4">
         <v>13.2</v>
@@ -3033,7 +3033,7 @@
         <v>79</v>
       </c>
       <c r="B53" s="5">
-        <v>45935.763888888891</v>
+        <v>45935.763194444444</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>23</v>
@@ -3042,10 +3042,10 @@
         <v>5</v>
       </c>
       <c r="E53" s="5">
-        <v>45935.763888888891</v>
+        <v>45935.773611111108</v>
       </c>
       <c r="F53" s="5">
-        <v>45935.773472222223</v>
+        <v>45935.759722222225</v>
       </c>
       <c r="G53" s="4">
         <v>14.8</v>
@@ -3068,7 +3068,7 @@
         <v>80</v>
       </c>
       <c r="B54" s="5">
-        <v>45935.75277777778</v>
+        <v>45935.767361111109</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>23</v>
@@ -3077,10 +3077,10 @@
         <v>4</v>
       </c>
       <c r="E54" s="5">
-        <v>45935.75277777778</v>
+        <v>45935.777777777781</v>
       </c>
       <c r="F54" s="5">
-        <v>45954.805833333332</v>
+        <v>45935.799305555556</v>
       </c>
       <c r="G54" s="4">
         <v>30.4</v>
@@ -3103,7 +3103,7 @@
         <v>81</v>
       </c>
       <c r="B55" s="5">
-        <v>45935.75277777778</v>
+        <v>45935.774305555555</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>29</v>
@@ -3112,10 +3112,10 @@
         <v>2</v>
       </c>
       <c r="E55" s="5">
-        <v>45935.75277777778</v>
+        <v>45935.784722222219</v>
       </c>
       <c r="F55" s="5">
-        <v>45947.908194444448</v>
+        <v>45935.807638888888</v>
       </c>
       <c r="G55" s="4">
         <v>32.799999999999997</v>
@@ -3138,7 +3138,7 @@
         <v>82</v>
       </c>
       <c r="B56" s="5">
-        <v>45935.75277777778</v>
+        <v>45935.777083333334</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>11</v>
@@ -3147,10 +3147,10 @@
         <v>2</v>
       </c>
       <c r="E56" s="5">
-        <v>45935.75277777778</v>
+        <v>45935.787499999999</v>
       </c>
       <c r="F56" s="5">
-        <v>45953.819027777776</v>
+        <v>45935.797222222223</v>
       </c>
       <c r="G56" s="4">
         <v>13.4</v>
@@ -3173,7 +3173,7 @@
         <v>83</v>
       </c>
       <c r="B57" s="5">
-        <v>45935.75277777778</v>
+        <v>45935.780555555553</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>28</v>
@@ -3182,10 +3182,10 @@
         <v>4</v>
       </c>
       <c r="E57" s="5">
-        <v>45935.75277777778</v>
+        <v>45935.790972222225</v>
       </c>
       <c r="F57" s="5">
-        <v>45939.686527777776</v>
+        <v>45935.817361111112</v>
       </c>
       <c r="G57" s="4">
         <v>37.6</v>
@@ -3208,7 +3208,7 @@
         <v>84</v>
       </c>
       <c r="B58" s="5">
-        <v>45935.75277777778</v>
+        <v>45935.78402777778</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>27</v>
@@ -3217,10 +3217,10 @@
         <v>6</v>
       </c>
       <c r="E58" s="5">
-        <v>45935.75277777778</v>
+        <v>45935.794444444444</v>
       </c>
       <c r="F58" s="5">
-        <v>45945.881736111114</v>
+        <v>45935.803472222222</v>
       </c>
       <c r="G58" s="4">
         <v>12.7</v>
@@ -3243,7 +3243,7 @@
         <v>85</v>
       </c>
       <c r="B59" s="5">
-        <v>45935.75277777778</v>
+        <v>45935.786805555559</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>24</v>
@@ -3252,10 +3252,10 @@
         <v>4</v>
       </c>
       <c r="E59" s="5">
-        <v>45935.75277777778</v>
+        <v>45935.797222222223</v>
       </c>
       <c r="F59" s="5">
-        <v>45940.740902777776</v>
+        <v>45935.8125</v>
       </c>
       <c r="G59" s="4">
         <v>21.9</v>
@@ -3278,7 +3278,7 @@
         <v>86</v>
       </c>
       <c r="B60" s="5">
-        <v>45935.75277777778</v>
+        <v>45935.794444444444</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>31</v>
@@ -3287,10 +3287,10 @@
         <v>2</v>
       </c>
       <c r="E60" s="5">
-        <v>45935.75277777778</v>
+        <v>45935.804861111108</v>
       </c>
       <c r="F60" s="5">
-        <v>45937.534375000003</v>
+        <v>45935.820138888892</v>
       </c>
       <c r="G60" s="4">
         <v>22.5</v>
@@ -3326,7 +3326,7 @@
         <v>87</v>
       </c>
       <c r="B62" s="5">
-        <v>45937.76458333333</v>
+        <v>45937.756249999999</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>31</v>
@@ -3338,7 +3338,7 @@
         <v>45937.76458333333</v>
       </c>
       <c r="F62" s="5">
-        <v>45944.824652777781</v>
+        <v>45937.779166666667</v>
       </c>
       <c r="G62" s="4">
         <v>19.5</v>
@@ -3361,7 +3361,7 @@
         <v>88</v>
       </c>
       <c r="B63" s="5">
-        <v>45937.765277777777</v>
+        <v>45937.758333333331</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>20</v>
@@ -3370,10 +3370,10 @@
         <v>4</v>
       </c>
       <c r="E63" s="5">
-        <v>45937.765277777777</v>
+        <v>45937.768750000003</v>
       </c>
       <c r="F63" s="5">
-        <v>45944.565208333333</v>
+        <v>45937.785416666666</v>
       </c>
       <c r="G63" s="4">
         <v>24.9</v>
@@ -3396,7 +3396,7 @@
         <v>89</v>
       </c>
       <c r="B64" s="5">
-        <v>45937.76666666667</v>
+        <v>45937.761805555558</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>30</v>
@@ -3405,10 +3405,10 @@
         <v>3</v>
       </c>
       <c r="E64" s="5">
-        <v>45937.76666666667</v>
+        <v>45937.770138888889</v>
       </c>
       <c r="F64" s="5">
-        <v>45938.856041666666</v>
+        <v>45937.77847222222</v>
       </c>
       <c r="G64" s="4">
         <v>12.7</v>
@@ -3431,7 +3431,7 @@
         <v>90</v>
       </c>
       <c r="B65" s="5">
-        <v>45937.764583275464</v>
+        <v>45937.76458333333</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>28</v>
@@ -3440,10 +3440,10 @@
         <v>1</v>
       </c>
       <c r="E65" s="5">
-        <v>45937.764583275464</v>
+        <v>45937.775000000001</v>
       </c>
       <c r="F65" s="5">
-        <v>45939.791805555556</v>
+        <v>45937.782638888886</v>
       </c>
       <c r="G65" s="4">
         <v>11.2</v>
@@ -3466,7 +3466,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="5">
-        <v>45937.764583275464</v>
+        <v>45937.770138888889</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>25</v>
@@ -3475,10 +3475,10 @@
         <v>5</v>
       </c>
       <c r="E66" s="5">
-        <v>45937.764583275464</v>
+        <v>45937.780555555553</v>
       </c>
       <c r="F66" s="5">
-        <v>45937.597291666665</v>
+        <v>45937.790972222225</v>
       </c>
       <c r="G66" s="4">
         <v>15.1</v>
@@ -3501,7 +3501,7 @@
         <v>92</v>
       </c>
       <c r="B67" s="5">
-        <v>45937.764583275464</v>
+        <v>45937.772916666669</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>27</v>
@@ -3510,10 +3510,10 @@
         <v>5</v>
       </c>
       <c r="E67" s="5">
-        <v>45937.764583275464</v>
+        <v>45937.783333333333</v>
       </c>
       <c r="F67" s="5">
-        <v>45954.794652777775</v>
+        <v>45937.79791666667</v>
       </c>
       <c r="G67" s="4">
         <v>21.3</v>
@@ -3536,7 +3536,7 @@
         <v>93</v>
       </c>
       <c r="B68" s="5">
-        <v>45937.764583275464</v>
+        <v>45937.774305555555</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>11</v>
@@ -3545,10 +3545,10 @@
         <v>6</v>
       </c>
       <c r="E68" s="5">
-        <v>45937.764583275464</v>
+        <v>45937.784722222219</v>
       </c>
       <c r="F68" s="5">
-        <v>45941.766041666669</v>
+        <v>45937.788888888892</v>
       </c>
       <c r="G68" s="4">
         <v>6.1</v>
@@ -3571,7 +3571,7 @@
         <v>94</v>
       </c>
       <c r="B69" s="5">
-        <v>45937.764583275464</v>
+        <v>45937.776388888888</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>27</v>
@@ -3580,10 +3580,10 @@
         <v>1</v>
       </c>
       <c r="E69" s="5">
-        <v>45937.764583275464</v>
+        <v>45937.786805555559</v>
       </c>
       <c r="F69" s="5">
-        <v>45944.395208333335</v>
+        <v>45937.790972222225</v>
       </c>
       <c r="G69" s="4">
         <v>6.1</v>
@@ -3606,7 +3606,7 @@
         <v>95</v>
       </c>
       <c r="B70" s="5">
-        <v>45937.764583275464</v>
+        <v>45937.779166666667</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>30</v>
@@ -3615,10 +3615,10 @@
         <v>2</v>
       </c>
       <c r="E70" s="5">
-        <v>45937.764583275464</v>
+        <v>45937.789583333331</v>
       </c>
       <c r="F70" s="5">
-        <v>45938.819444444445</v>
+        <v>45937.831250000003</v>
       </c>
       <c r="G70" s="4">
         <v>57</v>
@@ -3641,7 +3641,7 @@
         <v>96</v>
       </c>
       <c r="B71" s="5">
-        <v>45937.764583275464</v>
+        <v>45937.782638888886</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>24</v>
@@ -3653,7 +3653,7 @@
         <v>45937.764583275464</v>
       </c>
       <c r="F71" s="5">
-        <v>45949.547777777778</v>
+        <v>45937.764583275464</v>
       </c>
       <c r="G71" s="4">
         <v>23.8</v>
@@ -3676,7 +3676,7 @@
         <v>97</v>
       </c>
       <c r="B72" s="5">
-        <v>45937.764583275464</v>
+        <v>45937.785416666666</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>28</v>
@@ -3688,7 +3688,7 @@
         <v>45937.764583275464</v>
       </c>
       <c r="F72" s="5">
-        <v>45935.506666666668</v>
+        <v>45937.764583275464</v>
       </c>
       <c r="G72" s="4">
         <v>23.6</v>
@@ -3711,7 +3711,7 @@
         <v>98</v>
       </c>
       <c r="B73" s="5">
-        <v>45937.764583275464</v>
+        <v>45937.786805555559</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>26</v>
@@ -3723,7 +3723,7 @@
         <v>45937.764583275464</v>
       </c>
       <c r="F73" s="5">
-        <v>45950.78875</v>
+        <v>45937.764583275464</v>
       </c>
       <c r="G73" s="4">
         <v>24.8</v>
@@ -3746,7 +3746,7 @@
         <v>99</v>
       </c>
       <c r="B74" s="5">
-        <v>45937.764583275464</v>
+        <v>45937.788194444445</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>31</v>
@@ -3758,7 +3758,7 @@
         <v>45937.764583275464</v>
       </c>
       <c r="F74" s="5">
-        <v>45940.58520833333</v>
+        <v>45937.764583275464</v>
       </c>
       <c r="G74" s="4">
         <v>13.7</v>
@@ -3781,7 +3781,7 @@
         <v>100</v>
       </c>
       <c r="B75" s="5">
-        <v>45937.764583275464</v>
+        <v>45937.789583333331</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>29</v>
@@ -3793,7 +3793,7 @@
         <v>45937.764583275464</v>
       </c>
       <c r="F75" s="5">
-        <v>45945.554097222222</v>
+        <v>45937.764583275464</v>
       </c>
       <c r="G75" s="4">
         <v>26.9</v>
@@ -3816,7 +3816,7 @@
         <v>101</v>
       </c>
       <c r="B76" s="5">
-        <v>45937.764583275464</v>
+        <v>45937.790972222225</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>30</v>
@@ -3828,7 +3828,7 @@
         <v>45937.764583275464</v>
       </c>
       <c r="F76" s="5">
-        <v>45955.636666666665</v>
+        <v>45937.764583275464</v>
       </c>
       <c r="G76" s="4">
         <v>9.8000000000000007</v>
@@ -3851,7 +3851,7 @@
         <v>102</v>
       </c>
       <c r="B77" s="5">
-        <v>45937.764583275464</v>
+        <v>45937.790972222225</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>11</v>
@@ -3863,7 +3863,7 @@
         <v>45937.764583275464</v>
       </c>
       <c r="F77" s="5">
-        <v>45940.55840277778</v>
+        <v>45937.764583275464</v>
       </c>
       <c r="G77" s="4">
         <v>20.100000000000001</v>
@@ -3899,7 +3899,7 @@
         <v>103</v>
       </c>
       <c r="B79" s="5">
-        <v>45939.772222222222</v>
+        <v>45939.751388888886</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>30</v>
@@ -3908,10 +3908,10 @@
         <v>4</v>
       </c>
       <c r="E79" s="5">
-        <v>45939.772222222222</v>
+        <v>45939.761805555558</v>
       </c>
       <c r="F79" s="5">
-        <v>45948.87027777778</v>
+        <v>45939.774305555555</v>
       </c>
       <c r="G79" s="4">
         <v>18.2</v>
@@ -3934,7 +3934,7 @@
         <v>104</v>
       </c>
       <c r="B80" s="5">
-        <v>45939.772326388891</v>
+        <v>45939.754965277774</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>32</v>
@@ -3943,10 +3943,10 @@
         <v>1</v>
       </c>
       <c r="E80" s="5">
-        <v>45939.772326388891</v>
+        <v>45939.765381944446</v>
       </c>
       <c r="F80" s="5">
-        <v>45943.844861111109</v>
+        <v>45939.777881944443</v>
       </c>
       <c r="G80" s="4">
         <v>17.600000000000001</v>
@@ -3969,7 +3969,7 @@
         <v>105</v>
       </c>
       <c r="B81" s="5">
-        <v>45939.773611111108</v>
+        <v>45939.760416666664</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>17</v>
@@ -3981,7 +3981,7 @@
         <v>45939.773611111108</v>
       </c>
       <c r="F81" s="5">
-        <v>45949.786944444444</v>
+        <v>45939.793749999997</v>
       </c>
       <c r="G81" s="4">
         <v>28.2</v>
@@ -4004,7 +4004,7 @@
         <v>106</v>
       </c>
       <c r="B82" s="5">
-        <v>45939.772222164349</v>
+        <v>45939.76458333333</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>31</v>
@@ -4016,7 +4016,7 @@
         <v>45939.772222164349</v>
       </c>
       <c r="F82" s="5">
-        <v>45953.646249999998</v>
+        <v>45939.788888888892</v>
       </c>
       <c r="G82" s="4">
         <v>34.6</v>
@@ -4039,7 +4039,7 @@
         <v>107</v>
       </c>
       <c r="B83" s="5">
-        <v>45939.772222164349</v>
+        <v>45939.76666666667</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>29</v>
@@ -4048,10 +4048,10 @@
         <v>4</v>
       </c>
       <c r="E83" s="5">
-        <v>45939.772222164349</v>
+        <v>45939.772222222222</v>
       </c>
       <c r="F83" s="5">
-        <v>45938.872152777774</v>
+        <v>45939.788194444445</v>
       </c>
       <c r="G83" s="4">
         <v>23.9</v>
@@ -4074,7 +4074,7 @@
         <v>108</v>
       </c>
       <c r="B84" s="5">
-        <v>45939.772222164349</v>
+        <v>45939.772222222222</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>11</v>
@@ -4083,10 +4083,10 @@
         <v>3</v>
       </c>
       <c r="E84" s="5">
+        <v>45939.78125</v>
+      </c>
+      <c r="F84" s="5">
         <v>45939.772222164349</v>
-      </c>
-      <c r="F84" s="5">
-        <v>45950.843472222223</v>
       </c>
       <c r="G84" s="4">
         <v>54.6</v>
@@ -4109,7 +4109,7 @@
         <v>109</v>
       </c>
       <c r="B85" s="5">
-        <v>45939.772222164349</v>
+        <v>45939.775694444441</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4">
@@ -4136,7 +4136,7 @@
         <v>110</v>
       </c>
       <c r="B86" s="5">
-        <v>45939.772222164349</v>
+        <v>45939.777777777781</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>25</v>
@@ -4145,10 +4145,10 @@
         <v>5</v>
       </c>
       <c r="E86" s="5">
-        <v>45939.772222222222</v>
+        <v>45939.788194444445</v>
       </c>
       <c r="F86" s="5">
-        <v>45949.523611111108</v>
+        <v>45949.795138888891</v>
       </c>
       <c r="G86" s="4">
         <v>10</v>
@@ -4171,7 +4171,7 @@
         <v>111</v>
       </c>
       <c r="B87" s="5">
-        <v>45939.772222164349</v>
+        <v>45939.781944444447</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>26</v>
@@ -4180,10 +4180,10 @@
         <v>4</v>
       </c>
       <c r="E87" s="5">
-        <v>45939.772326388891</v>
+        <v>45939.79315972222</v>
       </c>
       <c r="F87" s="5">
-        <v>45940.542083333334</v>
+        <v>45939.80736111111</v>
       </c>
       <c r="G87" s="4">
         <v>19.600000000000001</v>
@@ -4206,7 +4206,7 @@
         <v>112</v>
       </c>
       <c r="B88" s="5">
-        <v>45939.772222164349</v>
+        <v>45939.783333333333</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>20</v>
@@ -4215,10 +4215,10 @@
         <v>6</v>
       </c>
       <c r="E88" s="5">
-        <v>45939.773611111108</v>
+        <v>45939.793055555558</v>
       </c>
       <c r="F88" s="5">
-        <v>45943.849027777775</v>
+        <v>45939.80736111111</v>
       </c>
       <c r="G88" s="4">
         <v>20.6</v>
@@ -4241,7 +4241,7 @@
         <v>113</v>
       </c>
       <c r="B89" s="5">
-        <v>45939.772222164349</v>
+        <v>45939.788888888892</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>27</v>
@@ -4250,10 +4250,10 @@
         <v>1</v>
       </c>
       <c r="E89" s="5">
-        <v>45939.772222164349</v>
+        <v>45939.8</v>
       </c>
       <c r="F89" s="5">
-        <v>45949.860833333332</v>
+        <v>45949.819166666668</v>
       </c>
       <c r="G89" s="4">
         <v>24.6</v>
@@ -4276,7 +4276,7 @@
         <v>114</v>
       </c>
       <c r="B90" s="5">
-        <v>45939.772222164349</v>
+        <v>45939.789583333331</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>20</v>
@@ -4285,10 +4285,10 @@
         <v>1</v>
       </c>
       <c r="E90" s="5">
-        <v>45939.772222164349</v>
+        <v>45939.800694444442</v>
       </c>
       <c r="F90" s="5">
-        <v>45935.978402777779</v>
+        <v>45949.834722222222</v>
       </c>
       <c r="G90" s="4">
         <v>42.9</v>
@@ -4324,7 +4324,7 @@
         <v>115</v>
       </c>
       <c r="B92" s="5">
-        <v>45941.777604166666</v>
+        <v>45941.752604166664</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>15</v>
@@ -4333,10 +4333,10 @@
         <v>5</v>
       </c>
       <c r="E92" s="5">
-        <v>45941.777604166666</v>
+        <v>45941.763020833336</v>
       </c>
       <c r="F92" s="5">
-        <v>45954.861319444448</v>
+        <v>45941.781076388892</v>
       </c>
       <c r="G92" s="4">
         <v>24.3</v>
@@ -4359,7 +4359,7 @@
         <v>116</v>
       </c>
       <c r="B93" s="5">
-        <v>45941.777696759258</v>
+        <v>45941.757557870369</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>11</v>
@@ -4368,10 +4368,10 @@
         <v>2</v>
       </c>
       <c r="E93" s="5">
-        <v>45941.777696759258</v>
+        <v>45941.767974537041</v>
       </c>
       <c r="F93" s="5">
-        <v>45944.811736111114</v>
+        <v>45941.78533564815</v>
       </c>
       <c r="G93" s="4">
         <v>24.9</v>
@@ -4394,7 +4394,7 @@
         <v>117</v>
       </c>
       <c r="B94" s="5">
-        <v>45941.779282407406</v>
+        <v>45941.76053240741</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>30</v>
@@ -4403,10 +4403,10 @@
         <v>3</v>
       </c>
       <c r="E94" s="5">
-        <v>45941.779282407406</v>
+        <v>45941.770949074074</v>
       </c>
       <c r="F94" s="5">
-        <v>45951.735208333332</v>
+        <v>45941.783449074072</v>
       </c>
       <c r="G94" s="4">
         <v>18.7</v>
@@ -4429,7 +4429,7 @@
         <v>118</v>
       </c>
       <c r="B95" s="5">
-        <v>45941.777604108793</v>
+        <v>45941.761631944442</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>26</v>
@@ -4438,10 +4438,10 @@
         <v>5</v>
       </c>
       <c r="E95" s="5">
-        <v>45941.777604108793</v>
+        <v>45941.778993055559</v>
       </c>
       <c r="F95" s="5">
-        <v>45949.906875000001</v>
+        <v>45941.800520833334</v>
       </c>
       <c r="G95" s="4">
         <v>32.9</v>
@@ -4464,7 +4464,7 @@
         <v>119</v>
       </c>
       <c r="B96" s="5">
-        <v>45941.777604108793</v>
+        <v>45941.765104166669</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>24</v>
@@ -4476,7 +4476,7 @@
         <v>45941.777604108793</v>
       </c>
       <c r="F96" s="5">
-        <v>45946.848194444443</v>
+        <v>45941.777604108793</v>
       </c>
       <c r="G96" s="4">
         <v>37.4</v>
@@ -4499,7 +4499,7 @@
         <v>120</v>
       </c>
       <c r="B97" s="5">
-        <v>45941.777604108793</v>
+        <v>45941.769270833334</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>20</v>
@@ -4511,7 +4511,7 @@
         <v>45941.777604108793</v>
       </c>
       <c r="F97" s="5">
-        <v>45954.510555555556</v>
+        <v>45941.777604108793</v>
       </c>
       <c r="G97" s="4">
         <v>10.199999999999999</v>
@@ -4534,7 +4534,7 @@
         <v>121</v>
       </c>
       <c r="B98" s="5">
-        <v>45941.777604108793</v>
+        <v>45941.77065972222</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>26</v>
@@ -4546,7 +4546,7 @@
         <v>45941.777604108793</v>
       </c>
       <c r="F98" s="5">
-        <v>45942.856319444443</v>
+        <v>45941.777604108793</v>
       </c>
       <c r="G98" s="4">
         <v>20.100000000000001</v>
@@ -4569,7 +4569,7 @@
         <v>122</v>
       </c>
       <c r="B99" s="5">
-        <v>45941.777604108793</v>
+        <v>45941.7734375</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>32</v>
@@ -4581,7 +4581,7 @@
         <v>45941.777604108793</v>
       </c>
       <c r="F99" s="5">
-        <v>45948.791319444441</v>
+        <v>45941.777604108793</v>
       </c>
       <c r="G99" s="4">
         <v>4.5</v>
@@ -4604,7 +4604,7 @@
         <v>123</v>
       </c>
       <c r="B100" s="5">
-        <v>45941.777604108793</v>
+        <v>45941.774826388886</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>24</v>
@@ -4616,7 +4616,7 @@
         <v>45941.777604108793</v>
       </c>
       <c r="F100" s="5">
-        <v>45952.86791666667</v>
+        <v>45941.777604108793</v>
       </c>
       <c r="G100" s="4">
         <v>4.8</v>
@@ -4639,7 +4639,7 @@
         <v>124</v>
       </c>
       <c r="B101" s="5">
-        <v>45941.777604108793</v>
+        <v>45941.776909722219</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>15</v>
@@ -4651,7 +4651,7 @@
         <v>45941.777604108793</v>
       </c>
       <c r="F101" s="5">
-        <v>45936.808055555557</v>
+        <v>45941.777604108793</v>
       </c>
       <c r="G101" s="4">
         <v>6.6</v>
@@ -4674,7 +4674,7 @@
         <v>125</v>
       </c>
       <c r="B102" s="5">
-        <v>45941.777604108793</v>
+        <v>45941.783159722225</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>23</v>
@@ -4686,7 +4686,7 @@
         <v>45941.777604108793</v>
       </c>
       <c r="F102" s="5">
-        <v>45954.437638888892</v>
+        <v>45941.777604108793</v>
       </c>
       <c r="G102" s="4">
         <v>35.200000000000003</v>
@@ -4709,7 +4709,7 @@
         <v>126</v>
       </c>
       <c r="B103" s="5">
-        <v>45941.777604108793</v>
+        <v>45941.786631944444</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>32</v>
@@ -4721,7 +4721,7 @@
         <v>45941.777604108793</v>
       </c>
       <c r="F103" s="5">
-        <v>45946.806805555556</v>
+        <v>45941.777604108793</v>
       </c>
       <c r="G103" s="4">
         <v>5.8</v>
@@ -4757,7 +4757,7 @@
         <v>127</v>
       </c>
       <c r="B105" s="5">
-        <v>45942.786111111112</v>
+        <v>45942.756944444445</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>25</v>
@@ -4766,10 +4766,10 @@
         <v>4</v>
       </c>
       <c r="E105" s="5">
-        <v>45942.786111111112</v>
+        <v>45942.767361111109</v>
       </c>
       <c r="F105" s="5">
-        <v>45949.762361111112</v>
+        <v>45942.792361111111</v>
       </c>
       <c r="G105" s="4">
         <v>35.799999999999997</v>
@@ -4792,7 +4792,7 @@
         <v>128</v>
       </c>
       <c r="B106" s="5">
-        <v>45942.787499999999</v>
+        <v>45942.761111111111</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>31</v>
@@ -4801,10 +4801,10 @@
         <v>4</v>
       </c>
       <c r="E106" s="5">
-        <v>45942.787499999999</v>
+        <v>45942.771527777775</v>
       </c>
       <c r="F106" s="5">
-        <v>45950.855763888889</v>
+        <v>45942.774305555555</v>
       </c>
       <c r="G106" s="4">
         <v>4.3</v>
@@ -4827,7 +4827,7 @@
         <v>129</v>
       </c>
       <c r="B107" s="5">
-        <v>45942.789583333331</v>
+        <v>45942.761805555558</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4">
@@ -4854,7 +4854,7 @@
         <v>130</v>
       </c>
       <c r="B108" s="5">
-        <v>45942.786111111112</v>
+        <v>45942.763888888891</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>26</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E108" s="5">
-        <v>45942.786111111112</v>
+        <v>45942.774305555555</v>
       </c>
       <c r="F108" s="5">
-        <v>45948.686041666668</v>
+        <v>45942.78125</v>
       </c>
       <c r="G108" s="4">
         <v>10.9</v>
@@ -4889,7 +4889,7 @@
         <v>131</v>
       </c>
       <c r="B109" s="5">
-        <v>45942.787499999999</v>
+        <v>45942.770138888889</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>29</v>
@@ -4898,10 +4898,10 @@
         <v>6</v>
       </c>
       <c r="E109" s="5">
-        <v>45942.787499999999</v>
+        <v>45942.780555555553</v>
       </c>
       <c r="F109" s="5">
-        <v>45937.475555555553</v>
+        <v>45942.793055555558</v>
       </c>
       <c r="G109" s="4">
         <v>17.8</v>
@@ -4924,7 +4924,7 @@
         <v>132</v>
       </c>
       <c r="B110" s="5">
-        <v>45942.789583333331</v>
+        <v>45942.772222222222</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>27</v>
@@ -4933,10 +4933,10 @@
         <v>7</v>
       </c>
       <c r="E110" s="5">
-        <v>45942.789583333331</v>
+        <v>45942.782638888886</v>
       </c>
       <c r="F110" s="5">
-        <v>45956.543124999997</v>
+        <v>45942.806944444441</v>
       </c>
       <c r="G110" s="4">
         <v>35.1</v>
@@ -4959,7 +4959,7 @@
         <v>133</v>
       </c>
       <c r="B111" s="5">
-        <v>45942.786111111112</v>
+        <v>45942.774305555555</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>11</v>
@@ -4968,10 +4968,10 @@
         <v>2</v>
       </c>
       <c r="E111" s="5">
-        <v>45942.786111111112</v>
+        <v>45942.784722222219</v>
       </c>
       <c r="F111" s="5">
-        <v>45939.813472222224</v>
+        <v>45942.794444444444</v>
       </c>
       <c r="G111" s="4">
         <v>14.4</v>
@@ -4994,7 +4994,7 @@
         <v>134</v>
       </c>
       <c r="B112" s="5">
-        <v>45942.786111111112</v>
+        <v>45942.782638888886</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>32</v>
@@ -5003,10 +5003,10 @@
         <v>4</v>
       </c>
       <c r="E112" s="5">
-        <v>45942.786111111112</v>
+        <v>45942.793055555558</v>
       </c>
       <c r="F112" s="5">
-        <v>45954.883263888885</v>
+        <v>45942.805555555555</v>
       </c>
       <c r="G112" s="4">
         <v>17.899999999999999</v>
@@ -5029,7 +5029,7 @@
         <v>135</v>
       </c>
       <c r="B113" s="5">
-        <v>45942.786111111112</v>
+        <v>45942.78402777778</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>29</v>
@@ -5038,10 +5038,10 @@
         <v>4</v>
       </c>
       <c r="E113" s="5">
-        <v>45942.786111111112</v>
+        <v>45942.794444444444</v>
       </c>
       <c r="F113" s="5">
-        <v>45937.535208333335</v>
+        <v>45942.799305555556</v>
       </c>
       <c r="G113" s="4">
         <v>6.7</v>
@@ -5073,10 +5073,10 @@
         <v>5</v>
       </c>
       <c r="E114" s="5">
-        <v>45942.786111111112</v>
+        <v>45942.796527777777</v>
       </c>
       <c r="F114" s="5">
-        <v>45953.795486111114</v>
+        <v>45942.800694444442</v>
       </c>
       <c r="G114" s="4">
         <v>5.5</v>
@@ -5108,10 +5108,10 @@
         <v>5</v>
       </c>
       <c r="E115" s="5">
-        <v>45942.786111111112</v>
+        <v>45942.796527777777</v>
       </c>
       <c r="F115" s="5">
-        <v>45941.809583333335</v>
+        <v>45942.765277777777</v>
       </c>
       <c r="G115" s="4">
         <v>14.8</v>
@@ -5134,7 +5134,7 @@
         <v>138</v>
       </c>
       <c r="B116" s="5">
-        <v>45942.786111111112</v>
+        <v>45942.787499999999</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>15</v>
@@ -5143,10 +5143,10 @@
         <v>2</v>
       </c>
       <c r="E116" s="5">
-        <v>45942.786111111112</v>
+        <v>45942.79791666667</v>
       </c>
       <c r="F116" s="5">
-        <v>45947.935416666667</v>
+        <v>45942.772222222222</v>
       </c>
       <c r="G116" s="4">
         <v>23</v>
@@ -5169,7 +5169,7 @@
         <v>139</v>
       </c>
       <c r="B117" s="5">
-        <v>45942.786111111112</v>
+        <v>45942.788194444445</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>15</v>
@@ -5178,10 +5178,10 @@
         <v>5</v>
       </c>
       <c r="E117" s="5">
-        <v>45942.786111111112</v>
+        <v>45942.798611111109</v>
       </c>
       <c r="F117" s="5">
-        <v>45939.634027777778</v>
+        <v>45942.817361111112</v>
       </c>
       <c r="G117" s="4">
         <v>27</v>
